--- a/data/OGP_data.xlsx
+++ b/data/OGP_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiacordoba/Documents/Policy Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiacordoba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48987A6-A1DD-2A4E-820F-88288A929502}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD74EF4-4B7E-204C-8F1F-7505D473A82B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25780" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="104">
   <si>
     <t>Country Code</t>
   </si>
@@ -736,12 +736,12 @@
   <dimension ref="A1:D892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F887" sqref="F887"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,8 +765,8 @@
       <c r="B2">
         <v>2011</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>103</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -779,8 +779,8 @@
       <c r="B3">
         <v>2011</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>103</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -793,8 +793,8 @@
       <c r="B4">
         <v>2011</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>103</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -807,8 +807,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>103</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -835,8 +835,8 @@
       <c r="B7">
         <v>2011</v>
       </c>
-      <c r="C7">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>103</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -849,8 +849,8 @@
       <c r="B8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>103</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -877,8 +877,8 @@
       <c r="B10">
         <v>2011</v>
       </c>
-      <c r="C10">
-        <v>2</v>
+      <c r="C10" t="s">
+        <v>103</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -905,8 +905,8 @@
       <c r="B12">
         <v>2011</v>
       </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="C12" t="s">
+        <v>103</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -919,8 +919,8 @@
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>103</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -933,8 +933,8 @@
       <c r="B14">
         <v>2011</v>
       </c>
-      <c r="C14">
-        <v>2</v>
+      <c r="C14" t="s">
+        <v>103</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -947,8 +947,8 @@
       <c r="B15">
         <v>2011</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>103</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -975,8 +975,8 @@
       <c r="B17">
         <v>2011</v>
       </c>
-      <c r="C17">
-        <v>2</v>
+      <c r="C17" t="s">
+        <v>103</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -989,8 +989,8 @@
       <c r="B18">
         <v>2011</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>103</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1003,8 +1003,8 @@
       <c r="B19">
         <v>2011</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>103</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1017,8 +1017,8 @@
       <c r="B20">
         <v>2011</v>
       </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="C20" t="s">
+        <v>103</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1031,8 +1031,8 @@
       <c r="B21">
         <v>2011</v>
       </c>
-      <c r="C21">
-        <v>2</v>
+      <c r="C21" t="s">
+        <v>103</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1045,8 +1045,8 @@
       <c r="B22">
         <v>2011</v>
       </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="C22" t="s">
+        <v>103</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1059,8 +1059,8 @@
       <c r="B23">
         <v>2011</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>103</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1073,8 +1073,8 @@
       <c r="B24">
         <v>2011</v>
       </c>
-      <c r="C24">
-        <v>2</v>
+      <c r="C24" t="s">
+        <v>103</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1087,8 +1087,8 @@
       <c r="B25">
         <v>2011</v>
       </c>
-      <c r="C25">
-        <v>2</v>
+      <c r="C25" t="s">
+        <v>103</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1101,8 +1101,8 @@
       <c r="B26">
         <v>2011</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>103</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1115,8 +1115,8 @@
       <c r="B27">
         <v>2011</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>103</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1129,8 +1129,8 @@
       <c r="B28">
         <v>2011</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>103</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1143,8 +1143,8 @@
       <c r="B29">
         <v>2011</v>
       </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>103</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1157,8 +1157,8 @@
       <c r="B30">
         <v>2011</v>
       </c>
-      <c r="C30">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>103</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1171,8 +1171,8 @@
       <c r="B31">
         <v>2011</v>
       </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" t="s">
+        <v>103</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1185,8 +1185,8 @@
       <c r="B32">
         <v>2011</v>
       </c>
-      <c r="C32">
-        <v>3</v>
+      <c r="C32" t="s">
+        <v>103</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1199,8 +1199,8 @@
       <c r="B33">
         <v>2011</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="s">
+        <v>103</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1213,8 +1213,8 @@
       <c r="B34">
         <v>2011</v>
       </c>
-      <c r="C34">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>103</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1227,8 +1227,8 @@
       <c r="B35">
         <v>2011</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>103</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1241,8 +1241,8 @@
       <c r="B36">
         <v>2011</v>
       </c>
-      <c r="C36">
-        <v>2</v>
+      <c r="C36" t="s">
+        <v>103</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1255,8 +1255,8 @@
       <c r="B37">
         <v>2011</v>
       </c>
-      <c r="C37">
-        <v>2</v>
+      <c r="C37" t="s">
+        <v>103</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1283,8 +1283,8 @@
       <c r="B39">
         <v>2011</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="s">
+        <v>103</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1311,8 +1311,8 @@
       <c r="B41">
         <v>2011</v>
       </c>
-      <c r="C41">
-        <v>2</v>
+      <c r="C41" t="s">
+        <v>103</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1325,8 +1325,8 @@
       <c r="B42">
         <v>2011</v>
       </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="C42" t="s">
+        <v>103</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1339,8 +1339,8 @@
       <c r="B43">
         <v>2011</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="s">
+        <v>103</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1367,8 +1367,8 @@
       <c r="B45">
         <v>2011</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" t="s">
+        <v>103</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1395,8 +1395,8 @@
       <c r="B47">
         <v>2011</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="s">
+        <v>103</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1409,8 +1409,8 @@
       <c r="B48">
         <v>2011</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="s">
+        <v>103</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1451,8 +1451,8 @@
       <c r="B51">
         <v>2011</v>
       </c>
-      <c r="C51">
-        <v>2</v>
+      <c r="C51" t="s">
+        <v>103</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1465,8 +1465,8 @@
       <c r="B52">
         <v>2011</v>
       </c>
-      <c r="C52">
-        <v>2</v>
+      <c r="C52" t="s">
+        <v>103</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1479,8 +1479,8 @@
       <c r="B53">
         <v>2011</v>
       </c>
-      <c r="C53">
-        <v>2</v>
+      <c r="C53" t="s">
+        <v>103</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1507,8 +1507,8 @@
       <c r="B55">
         <v>2011</v>
       </c>
-      <c r="C55">
-        <v>2</v>
+      <c r="C55" t="s">
+        <v>103</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1521,8 +1521,8 @@
       <c r="B56">
         <v>2011</v>
       </c>
-      <c r="C56">
-        <v>2</v>
+      <c r="C56" t="s">
+        <v>103</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1535,8 +1535,8 @@
       <c r="B57">
         <v>2011</v>
       </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="C57" t="s">
+        <v>103</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1563,8 +1563,8 @@
       <c r="B59">
         <v>2011</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" t="s">
+        <v>103</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1591,8 +1591,8 @@
       <c r="B61">
         <v>2011</v>
       </c>
-      <c r="C61">
-        <v>2</v>
+      <c r="C61" t="s">
+        <v>103</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1605,8 +1605,8 @@
       <c r="B62">
         <v>2011</v>
       </c>
-      <c r="C62">
-        <v>2</v>
+      <c r="C62" t="s">
+        <v>103</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1647,8 +1647,8 @@
       <c r="B65">
         <v>2011</v>
       </c>
-      <c r="C65">
-        <v>2</v>
+      <c r="C65" t="s">
+        <v>103</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1661,8 +1661,8 @@
       <c r="B66">
         <v>2011</v>
       </c>
-      <c r="C66">
-        <v>3</v>
+      <c r="C66" t="s">
+        <v>103</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1689,8 +1689,8 @@
       <c r="B68">
         <v>2011</v>
       </c>
-      <c r="C68">
-        <v>3</v>
+      <c r="C68" t="s">
+        <v>103</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1717,8 +1717,8 @@
       <c r="B70">
         <v>2011</v>
       </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="C70" t="s">
+        <v>103</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1731,8 +1731,8 @@
       <c r="B71">
         <v>2011</v>
       </c>
-      <c r="C71">
-        <v>2</v>
+      <c r="C71" t="s">
+        <v>103</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1759,8 +1759,8 @@
       <c r="B73">
         <v>2011</v>
       </c>
-      <c r="C73">
-        <v>2</v>
+      <c r="C73" t="s">
+        <v>103</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1787,8 +1787,8 @@
       <c r="B75">
         <v>2011</v>
       </c>
-      <c r="C75">
-        <v>2</v>
+      <c r="C75" t="s">
+        <v>103</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1801,8 +1801,8 @@
       <c r="B76">
         <v>2011</v>
       </c>
-      <c r="C76">
-        <v>2</v>
+      <c r="C76" t="s">
+        <v>103</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1815,8 +1815,8 @@
       <c r="B77">
         <v>2011</v>
       </c>
-      <c r="C77">
-        <v>1</v>
+      <c r="C77" t="s">
+        <v>103</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1829,8 +1829,8 @@
       <c r="B78">
         <v>2011</v>
       </c>
-      <c r="C78">
-        <v>3</v>
+      <c r="C78" t="s">
+        <v>103</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1857,8 +1857,8 @@
       <c r="B80">
         <v>2011</v>
       </c>
-      <c r="C80">
-        <v>2</v>
+      <c r="C80" t="s">
+        <v>103</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1871,8 +1871,8 @@
       <c r="B81">
         <v>2011</v>
       </c>
-      <c r="C81">
-        <v>2</v>
+      <c r="C81" t="s">
+        <v>103</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1885,8 +1885,8 @@
       <c r="B82">
         <v>2011</v>
       </c>
-      <c r="C82">
-        <v>1</v>
+      <c r="C82" t="s">
+        <v>103</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1899,8 +1899,8 @@
       <c r="B83">
         <v>2011</v>
       </c>
-      <c r="C83">
-        <v>2</v>
+      <c r="C83" t="s">
+        <v>103</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1913,8 +1913,8 @@
       <c r="B84">
         <v>2011</v>
       </c>
-      <c r="C84">
-        <v>2</v>
+      <c r="C84" t="s">
+        <v>103</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1941,8 +1941,8 @@
       <c r="B86">
         <v>2011</v>
       </c>
-      <c r="C86">
-        <v>2</v>
+      <c r="C86" t="s">
+        <v>103</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1955,8 +1955,8 @@
       <c r="B87">
         <v>2011</v>
       </c>
-      <c r="C87">
-        <v>2</v>
+      <c r="C87" t="s">
+        <v>103</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1969,8 +1969,8 @@
       <c r="B88">
         <v>2011</v>
       </c>
-      <c r="C88">
-        <v>3</v>
+      <c r="C88" t="s">
+        <v>103</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1997,8 +1997,8 @@
       <c r="B90">
         <v>2011</v>
       </c>
-      <c r="C90">
-        <v>2</v>
+      <c r="C90" t="s">
+        <v>103</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2011,8 +2011,8 @@
       <c r="B91">
         <v>2011</v>
       </c>
-      <c r="C91">
-        <v>2</v>
+      <c r="C91" t="s">
+        <v>103</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2025,8 +2025,8 @@
       <c r="B92">
         <v>2011</v>
       </c>
-      <c r="C92">
-        <v>2</v>
+      <c r="C92" t="s">
+        <v>103</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2039,8 +2039,8 @@
       <c r="B93">
         <v>2011</v>
       </c>
-      <c r="C93">
-        <v>3</v>
+      <c r="C93" t="s">
+        <v>103</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2053,8 +2053,8 @@
       <c r="B94">
         <v>2011</v>
       </c>
-      <c r="C94">
-        <v>2</v>
+      <c r="C94" t="s">
+        <v>103</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2067,8 +2067,8 @@
       <c r="B95">
         <v>2011</v>
       </c>
-      <c r="C95">
-        <v>1</v>
+      <c r="C95" t="s">
+        <v>103</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2081,8 +2081,8 @@
       <c r="B96">
         <v>2011</v>
       </c>
-      <c r="C96">
-        <v>2</v>
+      <c r="C96" t="s">
+        <v>103</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2095,8 +2095,8 @@
       <c r="B97">
         <v>2011</v>
       </c>
-      <c r="C97">
-        <v>2</v>
+      <c r="C97" t="s">
+        <v>103</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2109,8 +2109,8 @@
       <c r="B98">
         <v>2011</v>
       </c>
-      <c r="C98">
-        <v>3</v>
+      <c r="C98" t="s">
+        <v>103</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2123,8 +2123,8 @@
       <c r="B99">
         <v>2011</v>
       </c>
-      <c r="C99">
-        <v>3</v>
+      <c r="C99" t="s">
+        <v>103</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2137,8 +2137,8 @@
       <c r="B100">
         <v>2011</v>
       </c>
-      <c r="C100">
-        <v>2</v>
+      <c r="C100" t="s">
+        <v>103</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2151,8 +2151,8 @@
       <c r="B101">
         <v>2012</v>
       </c>
-      <c r="C101">
-        <v>1</v>
+      <c r="C101" t="s">
+        <v>103</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2165,8 +2165,8 @@
       <c r="B102">
         <v>2012</v>
       </c>
-      <c r="C102">
-        <v>2</v>
+      <c r="C102" t="s">
+        <v>103</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2179,8 +2179,8 @@
       <c r="B103">
         <v>2012</v>
       </c>
-      <c r="C103">
-        <v>2</v>
+      <c r="C103" t="s">
+        <v>103</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2193,8 +2193,8 @@
       <c r="B104">
         <v>2012</v>
       </c>
-      <c r="C104">
-        <v>2</v>
+      <c r="C104" t="s">
+        <v>103</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2221,8 +2221,8 @@
       <c r="B106">
         <v>2012</v>
       </c>
-      <c r="C106">
-        <v>3</v>
+      <c r="C106" t="s">
+        <v>103</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2235,8 +2235,8 @@
       <c r="B107">
         <v>2012</v>
       </c>
-      <c r="C107">
-        <v>2</v>
+      <c r="C107" t="s">
+        <v>103</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2263,8 +2263,8 @@
       <c r="B109">
         <v>2012</v>
       </c>
-      <c r="C109">
-        <v>2</v>
+      <c r="C109" t="s">
+        <v>103</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2291,8 +2291,8 @@
       <c r="B111">
         <v>2012</v>
       </c>
-      <c r="C111">
-        <v>3</v>
+      <c r="C111" t="s">
+        <v>103</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2305,8 +2305,8 @@
       <c r="B112">
         <v>2012</v>
       </c>
-      <c r="C112">
-        <v>2</v>
+      <c r="C112" t="s">
+        <v>103</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2319,8 +2319,8 @@
       <c r="B113">
         <v>2012</v>
       </c>
-      <c r="C113">
-        <v>2</v>
+      <c r="C113" t="s">
+        <v>103</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2333,8 +2333,8 @@
       <c r="B114">
         <v>2012</v>
       </c>
-      <c r="C114">
-        <v>1</v>
+      <c r="C114" t="s">
+        <v>103</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2361,8 +2361,8 @@
       <c r="B116">
         <v>2012</v>
       </c>
-      <c r="C116">
-        <v>2</v>
+      <c r="C116" t="s">
+        <v>103</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2375,8 +2375,8 @@
       <c r="B117">
         <v>2012</v>
       </c>
-      <c r="C117">
-        <v>2</v>
+      <c r="C117" t="s">
+        <v>103</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2389,8 +2389,8 @@
       <c r="B118">
         <v>2012</v>
       </c>
-      <c r="C118">
-        <v>2</v>
+      <c r="C118" t="s">
+        <v>103</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2403,8 +2403,8 @@
       <c r="B119">
         <v>2012</v>
       </c>
-      <c r="C119">
-        <v>2</v>
+      <c r="C119" t="s">
+        <v>103</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2417,8 +2417,8 @@
       <c r="B120">
         <v>2012</v>
       </c>
-      <c r="C120">
-        <v>2</v>
+      <c r="C120" t="s">
+        <v>103</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2431,8 +2431,8 @@
       <c r="B121">
         <v>2012</v>
       </c>
-      <c r="C121">
-        <v>2</v>
+      <c r="C121" t="s">
+        <v>103</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2445,8 +2445,8 @@
       <c r="B122">
         <v>2012</v>
       </c>
-      <c r="C122">
-        <v>1</v>
+      <c r="C122" t="s">
+        <v>103</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2459,8 +2459,8 @@
       <c r="B123">
         <v>2012</v>
       </c>
-      <c r="C123">
-        <v>2</v>
+      <c r="C123" t="s">
+        <v>103</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2473,8 +2473,8 @@
       <c r="B124">
         <v>2012</v>
       </c>
-      <c r="C124">
-        <v>2</v>
+      <c r="C124" t="s">
+        <v>103</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2487,8 +2487,8 @@
       <c r="B125">
         <v>2012</v>
       </c>
-      <c r="C125">
-        <v>1</v>
+      <c r="C125" t="s">
+        <v>103</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2501,8 +2501,8 @@
       <c r="B126">
         <v>2012</v>
       </c>
-      <c r="C126">
-        <v>2</v>
+      <c r="C126" t="s">
+        <v>103</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2515,8 +2515,8 @@
       <c r="B127">
         <v>2012</v>
       </c>
-      <c r="C127">
-        <v>2</v>
+      <c r="C127" t="s">
+        <v>103</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2529,8 +2529,8 @@
       <c r="B128">
         <v>2012</v>
       </c>
-      <c r="C128">
-        <v>2</v>
+      <c r="C128" t="s">
+        <v>103</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2543,8 +2543,8 @@
       <c r="B129">
         <v>2012</v>
       </c>
-      <c r="C129">
-        <v>2</v>
+      <c r="C129" t="s">
+        <v>103</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2557,8 +2557,8 @@
       <c r="B130">
         <v>2012</v>
       </c>
-      <c r="C130">
-        <v>3</v>
+      <c r="C130" t="s">
+        <v>103</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2571,8 +2571,8 @@
       <c r="B131">
         <v>2012</v>
       </c>
-      <c r="C131">
-        <v>3</v>
+      <c r="C131" t="s">
+        <v>103</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2585,8 +2585,8 @@
       <c r="B132">
         <v>2012</v>
       </c>
-      <c r="C132">
-        <v>2</v>
+      <c r="C132" t="s">
+        <v>103</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2599,8 +2599,8 @@
       <c r="B133">
         <v>2012</v>
       </c>
-      <c r="C133">
-        <v>2</v>
+      <c r="C133" t="s">
+        <v>103</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2613,8 +2613,8 @@
       <c r="B134">
         <v>2012</v>
       </c>
-      <c r="C134">
-        <v>2</v>
+      <c r="C134" t="s">
+        <v>103</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2627,8 +2627,8 @@
       <c r="B135">
         <v>2012</v>
       </c>
-      <c r="C135">
-        <v>2</v>
+      <c r="C135" t="s">
+        <v>103</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2641,8 +2641,8 @@
       <c r="B136">
         <v>2012</v>
       </c>
-      <c r="C136">
-        <v>2</v>
+      <c r="C136" t="s">
+        <v>103</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2669,8 +2669,8 @@
       <c r="B138">
         <v>2012</v>
       </c>
-      <c r="C138">
-        <v>2</v>
+      <c r="C138" t="s">
+        <v>103</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -2697,8 +2697,8 @@
       <c r="B140">
         <v>2012</v>
       </c>
-      <c r="C140">
-        <v>2</v>
+      <c r="C140" t="s">
+        <v>103</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -2711,8 +2711,8 @@
       <c r="B141">
         <v>2012</v>
       </c>
-      <c r="C141">
-        <v>2</v>
+      <c r="C141" t="s">
+        <v>103</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2725,8 +2725,8 @@
       <c r="B142">
         <v>2012</v>
       </c>
-      <c r="C142">
-        <v>2</v>
+      <c r="C142" t="s">
+        <v>103</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2753,8 +2753,8 @@
       <c r="B144">
         <v>2012</v>
       </c>
-      <c r="C144">
-        <v>2</v>
+      <c r="C144" t="s">
+        <v>103</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2781,8 +2781,8 @@
       <c r="B146">
         <v>2012</v>
       </c>
-      <c r="C146">
-        <v>2</v>
+      <c r="C146" t="s">
+        <v>103</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2795,8 +2795,8 @@
       <c r="B147">
         <v>2012</v>
       </c>
-      <c r="C147">
-        <v>2</v>
+      <c r="C147" t="s">
+        <v>103</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2837,8 +2837,8 @@
       <c r="B150">
         <v>2012</v>
       </c>
-      <c r="C150">
-        <v>2</v>
+      <c r="C150" t="s">
+        <v>103</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -2851,8 +2851,8 @@
       <c r="B151">
         <v>2012</v>
       </c>
-      <c r="C151">
-        <v>2</v>
+      <c r="C151" t="s">
+        <v>103</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2865,8 +2865,8 @@
       <c r="B152">
         <v>2012</v>
       </c>
-      <c r="C152">
-        <v>2</v>
+      <c r="C152" t="s">
+        <v>103</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -2893,8 +2893,8 @@
       <c r="B154">
         <v>2012</v>
       </c>
-      <c r="C154">
-        <v>2</v>
+      <c r="C154" t="s">
+        <v>103</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2907,8 +2907,8 @@
       <c r="B155">
         <v>2012</v>
       </c>
-      <c r="C155">
-        <v>2</v>
+      <c r="C155" t="s">
+        <v>103</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -2921,8 +2921,8 @@
       <c r="B156">
         <v>2012</v>
       </c>
-      <c r="C156">
-        <v>1</v>
+      <c r="C156" t="s">
+        <v>103</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -2949,8 +2949,8 @@
       <c r="B158">
         <v>2012</v>
       </c>
-      <c r="C158">
-        <v>3</v>
+      <c r="C158" t="s">
+        <v>103</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -2977,8 +2977,8 @@
       <c r="B160">
         <v>2012</v>
       </c>
-      <c r="C160">
-        <v>2</v>
+      <c r="C160" t="s">
+        <v>103</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -2991,8 +2991,8 @@
       <c r="B161">
         <v>2012</v>
       </c>
-      <c r="C161">
-        <v>2</v>
+      <c r="C161" t="s">
+        <v>103</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -3033,8 +3033,8 @@
       <c r="B164">
         <v>2012</v>
       </c>
-      <c r="C164">
-        <v>2</v>
+      <c r="C164" t="s">
+        <v>103</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3047,8 +3047,8 @@
       <c r="B165">
         <v>2012</v>
       </c>
-      <c r="C165">
-        <v>3</v>
+      <c r="C165" t="s">
+        <v>103</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -3075,8 +3075,8 @@
       <c r="B167">
         <v>2012</v>
       </c>
-      <c r="C167">
-        <v>3</v>
+      <c r="C167" t="s">
+        <v>103</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -3103,8 +3103,8 @@
       <c r="B169">
         <v>2012</v>
       </c>
-      <c r="C169">
-        <v>1</v>
+      <c r="C169" t="s">
+        <v>103</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3117,8 +3117,8 @@
       <c r="B170">
         <v>2012</v>
       </c>
-      <c r="C170">
-        <v>2</v>
+      <c r="C170" t="s">
+        <v>103</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3145,8 +3145,8 @@
       <c r="B172">
         <v>2012</v>
       </c>
-      <c r="C172">
-        <v>2</v>
+      <c r="C172" t="s">
+        <v>103</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -3173,8 +3173,8 @@
       <c r="B174">
         <v>2012</v>
       </c>
-      <c r="C174">
-        <v>2</v>
+      <c r="C174" t="s">
+        <v>103</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -3187,8 +3187,8 @@
       <c r="B175">
         <v>2012</v>
       </c>
-      <c r="C175">
-        <v>2</v>
+      <c r="C175" t="s">
+        <v>103</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -3201,8 +3201,8 @@
       <c r="B176">
         <v>2012</v>
       </c>
-      <c r="C176">
-        <v>1</v>
+      <c r="C176" t="s">
+        <v>103</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3215,8 +3215,8 @@
       <c r="B177">
         <v>2012</v>
       </c>
-      <c r="C177">
-        <v>3</v>
+      <c r="C177" t="s">
+        <v>103</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -3243,8 +3243,8 @@
       <c r="B179">
         <v>2012</v>
       </c>
-      <c r="C179">
-        <v>2</v>
+      <c r="C179" t="s">
+        <v>103</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3257,8 +3257,8 @@
       <c r="B180">
         <v>2012</v>
       </c>
-      <c r="C180">
-        <v>2</v>
+      <c r="C180" t="s">
+        <v>103</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3271,8 +3271,8 @@
       <c r="B181">
         <v>2012</v>
       </c>
-      <c r="C181">
-        <v>1</v>
+      <c r="C181" t="s">
+        <v>103</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3285,8 +3285,8 @@
       <c r="B182">
         <v>2012</v>
       </c>
-      <c r="C182">
-        <v>2</v>
+      <c r="C182" t="s">
+        <v>103</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3299,8 +3299,8 @@
       <c r="B183">
         <v>2012</v>
       </c>
-      <c r="C183">
-        <v>2</v>
+      <c r="C183" t="s">
+        <v>103</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3327,8 +3327,8 @@
       <c r="B185">
         <v>2012</v>
       </c>
-      <c r="C185">
-        <v>2</v>
+      <c r="C185" t="s">
+        <v>103</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3341,8 +3341,8 @@
       <c r="B186">
         <v>2012</v>
       </c>
-      <c r="C186">
-        <v>2</v>
+      <c r="C186" t="s">
+        <v>103</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3355,8 +3355,8 @@
       <c r="B187">
         <v>2012</v>
       </c>
-      <c r="C187">
-        <v>3</v>
+      <c r="C187" t="s">
+        <v>103</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3383,8 +3383,8 @@
       <c r="B189">
         <v>2012</v>
       </c>
-      <c r="C189">
-        <v>2</v>
+      <c r="C189" t="s">
+        <v>103</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -3397,8 +3397,8 @@
       <c r="B190">
         <v>2012</v>
       </c>
-      <c r="C190">
-        <v>2</v>
+      <c r="C190" t="s">
+        <v>103</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -3411,8 +3411,8 @@
       <c r="B191">
         <v>2012</v>
       </c>
-      <c r="C191">
-        <v>2</v>
+      <c r="C191" t="s">
+        <v>103</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3425,8 +3425,8 @@
       <c r="B192">
         <v>2012</v>
       </c>
-      <c r="C192">
-        <v>3</v>
+      <c r="C192" t="s">
+        <v>103</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -3439,8 +3439,8 @@
       <c r="B193">
         <v>2012</v>
       </c>
-      <c r="C193">
-        <v>2</v>
+      <c r="C193" t="s">
+        <v>103</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3453,8 +3453,8 @@
       <c r="B194">
         <v>2012</v>
       </c>
-      <c r="C194">
-        <v>1</v>
+      <c r="C194" t="s">
+        <v>103</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3467,8 +3467,8 @@
       <c r="B195">
         <v>2012</v>
       </c>
-      <c r="C195">
-        <v>2</v>
+      <c r="C195" t="s">
+        <v>103</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3481,8 +3481,8 @@
       <c r="B196">
         <v>2012</v>
       </c>
-      <c r="C196">
-        <v>2</v>
+      <c r="C196" t="s">
+        <v>103</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3495,8 +3495,8 @@
       <c r="B197">
         <v>2012</v>
       </c>
-      <c r="C197">
-        <v>3</v>
+      <c r="C197" t="s">
+        <v>103</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -3509,8 +3509,8 @@
       <c r="B198">
         <v>2012</v>
       </c>
-      <c r="C198">
-        <v>3</v>
+      <c r="C198" t="s">
+        <v>103</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3523,8 +3523,8 @@
       <c r="B199">
         <v>2012</v>
       </c>
-      <c r="C199">
-        <v>2</v>
+      <c r="C199" t="s">
+        <v>103</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3537,8 +3537,8 @@
       <c r="B200">
         <v>2013</v>
       </c>
-      <c r="C200">
-        <v>1</v>
+      <c r="C200" t="s">
+        <v>103</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3551,8 +3551,8 @@
       <c r="B201">
         <v>2013</v>
       </c>
-      <c r="C201">
-        <v>2</v>
+      <c r="C201" t="s">
+        <v>103</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3565,8 +3565,8 @@
       <c r="B202">
         <v>2013</v>
       </c>
-      <c r="C202">
-        <v>2</v>
+      <c r="C202" t="s">
+        <v>103</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3579,8 +3579,8 @@
       <c r="B203">
         <v>2013</v>
       </c>
-      <c r="C203">
-        <v>2</v>
+      <c r="C203" t="s">
+        <v>103</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3607,8 +3607,8 @@
       <c r="B205">
         <v>2013</v>
       </c>
-      <c r="C205">
-        <v>3</v>
+      <c r="C205" t="s">
+        <v>103</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3621,8 +3621,8 @@
       <c r="B206">
         <v>2013</v>
       </c>
-      <c r="C206">
-        <v>2</v>
+      <c r="C206" t="s">
+        <v>103</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -3649,8 +3649,8 @@
       <c r="B208">
         <v>2013</v>
       </c>
-      <c r="C208">
-        <v>2</v>
+      <c r="C208" t="s">
+        <v>103</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3677,8 +3677,8 @@
       <c r="B210">
         <v>2013</v>
       </c>
-      <c r="C210">
-        <v>3</v>
+      <c r="C210" t="s">
+        <v>103</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -3691,8 +3691,8 @@
       <c r="B211">
         <v>2013</v>
       </c>
-      <c r="C211">
-        <v>2</v>
+      <c r="C211" t="s">
+        <v>103</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3705,8 +3705,8 @@
       <c r="B212">
         <v>2013</v>
       </c>
-      <c r="C212">
-        <v>2</v>
+      <c r="C212" t="s">
+        <v>103</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -3719,8 +3719,8 @@
       <c r="B213">
         <v>2013</v>
       </c>
-      <c r="C213">
-        <v>1</v>
+      <c r="C213" t="s">
+        <v>103</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -3747,8 +3747,8 @@
       <c r="B215">
         <v>2013</v>
       </c>
-      <c r="C215">
-        <v>2</v>
+      <c r="C215" t="s">
+        <v>103</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -3761,8 +3761,8 @@
       <c r="B216">
         <v>2013</v>
       </c>
-      <c r="C216">
-        <v>2</v>
+      <c r="C216" t="s">
+        <v>103</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3775,8 +3775,8 @@
       <c r="B217">
         <v>2013</v>
       </c>
-      <c r="C217">
-        <v>2</v>
+      <c r="C217" t="s">
+        <v>103</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -3789,8 +3789,8 @@
       <c r="B218">
         <v>2013</v>
       </c>
-      <c r="C218">
-        <v>2</v>
+      <c r="C218" t="s">
+        <v>103</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -3803,8 +3803,8 @@
       <c r="B219">
         <v>2013</v>
       </c>
-      <c r="C219">
-        <v>2</v>
+      <c r="C219" t="s">
+        <v>103</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -3817,8 +3817,8 @@
       <c r="B220">
         <v>2013</v>
       </c>
-      <c r="C220">
-        <v>2</v>
+      <c r="C220" t="s">
+        <v>103</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -3831,8 +3831,8 @@
       <c r="B221">
         <v>2013</v>
       </c>
-      <c r="C221">
-        <v>1</v>
+      <c r="C221" t="s">
+        <v>103</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -3845,8 +3845,8 @@
       <c r="B222">
         <v>2013</v>
       </c>
-      <c r="C222">
-        <v>2</v>
+      <c r="C222" t="s">
+        <v>103</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -3859,8 +3859,8 @@
       <c r="B223">
         <v>2013</v>
       </c>
-      <c r="C223">
-        <v>2</v>
+      <c r="C223" t="s">
+        <v>103</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -3873,8 +3873,8 @@
       <c r="B224">
         <v>2013</v>
       </c>
-      <c r="C224">
-        <v>1</v>
+      <c r="C224" t="s">
+        <v>103</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -3887,8 +3887,8 @@
       <c r="B225">
         <v>2013</v>
       </c>
-      <c r="C225">
-        <v>2</v>
+      <c r="C225" t="s">
+        <v>103</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -3901,8 +3901,8 @@
       <c r="B226">
         <v>2013</v>
       </c>
-      <c r="C226">
-        <v>2</v>
+      <c r="C226" t="s">
+        <v>103</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -3915,8 +3915,8 @@
       <c r="B227">
         <v>2013</v>
       </c>
-      <c r="C227">
-        <v>2</v>
+      <c r="C227" t="s">
+        <v>103</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -3929,8 +3929,8 @@
       <c r="B228">
         <v>2013</v>
       </c>
-      <c r="C228">
-        <v>2</v>
+      <c r="C228" t="s">
+        <v>103</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -3943,8 +3943,8 @@
       <c r="B229">
         <v>2013</v>
       </c>
-      <c r="C229">
-        <v>3</v>
+      <c r="C229" t="s">
+        <v>103</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -3957,8 +3957,8 @@
       <c r="B230">
         <v>2013</v>
       </c>
-      <c r="C230">
-        <v>3</v>
+      <c r="C230" t="s">
+        <v>103</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -3971,8 +3971,8 @@
       <c r="B231">
         <v>2013</v>
       </c>
-      <c r="C231">
-        <v>2</v>
+      <c r="C231" t="s">
+        <v>103</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -3985,8 +3985,8 @@
       <c r="B232">
         <v>2013</v>
       </c>
-      <c r="C232">
-        <v>2</v>
+      <c r="C232" t="s">
+        <v>103</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -3999,8 +3999,8 @@
       <c r="B233">
         <v>2013</v>
       </c>
-      <c r="C233">
-        <v>2</v>
+      <c r="C233" t="s">
+        <v>103</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -4013,8 +4013,8 @@
       <c r="B234">
         <v>2013</v>
       </c>
-      <c r="C234">
-        <v>2</v>
+      <c r="C234" t="s">
+        <v>103</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -4027,8 +4027,8 @@
       <c r="B235">
         <v>2013</v>
       </c>
-      <c r="C235">
-        <v>2</v>
+      <c r="C235" t="s">
+        <v>103</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -4055,8 +4055,8 @@
       <c r="B237">
         <v>2013</v>
       </c>
-      <c r="C237">
-        <v>2</v>
+      <c r="C237" t="s">
+        <v>103</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -4083,8 +4083,8 @@
       <c r="B239">
         <v>2013</v>
       </c>
-      <c r="C239">
-        <v>2</v>
+      <c r="C239" t="s">
+        <v>103</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -4097,8 +4097,8 @@
       <c r="B240">
         <v>2013</v>
       </c>
-      <c r="C240">
-        <v>2</v>
+      <c r="C240" t="s">
+        <v>103</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -4111,8 +4111,8 @@
       <c r="B241">
         <v>2013</v>
       </c>
-      <c r="C241">
-        <v>2</v>
+      <c r="C241" t="s">
+        <v>103</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -4139,8 +4139,8 @@
       <c r="B243">
         <v>2013</v>
       </c>
-      <c r="C243">
-        <v>2</v>
+      <c r="C243" t="s">
+        <v>103</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -4167,8 +4167,8 @@
       <c r="B245">
         <v>2013</v>
       </c>
-      <c r="C245">
-        <v>2</v>
+      <c r="C245" t="s">
+        <v>103</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -4181,8 +4181,8 @@
       <c r="B246">
         <v>2013</v>
       </c>
-      <c r="C246">
-        <v>2</v>
+      <c r="C246" t="s">
+        <v>103</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -4223,8 +4223,8 @@
       <c r="B249">
         <v>2013</v>
       </c>
-      <c r="C249">
-        <v>2</v>
+      <c r="C249" t="s">
+        <v>103</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -4237,8 +4237,8 @@
       <c r="B250">
         <v>2013</v>
       </c>
-      <c r="C250">
-        <v>2</v>
+      <c r="C250" t="s">
+        <v>103</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -4251,8 +4251,8 @@
       <c r="B251">
         <v>2013</v>
       </c>
-      <c r="C251">
-        <v>2</v>
+      <c r="C251" t="s">
+        <v>103</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -4279,8 +4279,8 @@
       <c r="B253">
         <v>2013</v>
       </c>
-      <c r="C253">
-        <v>2</v>
+      <c r="C253" t="s">
+        <v>103</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -4293,8 +4293,8 @@
       <c r="B254">
         <v>2013</v>
       </c>
-      <c r="C254">
-        <v>2</v>
+      <c r="C254" t="s">
+        <v>103</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -4307,8 +4307,8 @@
       <c r="B255">
         <v>2013</v>
       </c>
-      <c r="C255">
-        <v>1</v>
+      <c r="C255" t="s">
+        <v>103</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -4335,8 +4335,8 @@
       <c r="B257">
         <v>2013</v>
       </c>
-      <c r="C257">
-        <v>3</v>
+      <c r="C257" t="s">
+        <v>103</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -4363,8 +4363,8 @@
       <c r="B259">
         <v>2013</v>
       </c>
-      <c r="C259">
-        <v>2</v>
+      <c r="C259" t="s">
+        <v>103</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -4377,8 +4377,8 @@
       <c r="B260">
         <v>2013</v>
       </c>
-      <c r="C260">
-        <v>2</v>
+      <c r="C260" t="s">
+        <v>103</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -4419,8 +4419,8 @@
       <c r="B263">
         <v>2013</v>
       </c>
-      <c r="C263">
-        <v>2</v>
+      <c r="C263" t="s">
+        <v>103</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -4433,8 +4433,8 @@
       <c r="B264">
         <v>2013</v>
       </c>
-      <c r="C264">
-        <v>3</v>
+      <c r="C264" t="s">
+        <v>103</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -4461,8 +4461,8 @@
       <c r="B266">
         <v>2013</v>
       </c>
-      <c r="C266">
-        <v>3</v>
+      <c r="C266" t="s">
+        <v>103</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -4489,8 +4489,8 @@
       <c r="B268">
         <v>2013</v>
       </c>
-      <c r="C268">
-        <v>1</v>
+      <c r="C268" t="s">
+        <v>103</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -4503,8 +4503,8 @@
       <c r="B269">
         <v>2013</v>
       </c>
-      <c r="C269">
-        <v>2</v>
+      <c r="C269" t="s">
+        <v>103</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -4531,8 +4531,8 @@
       <c r="B271">
         <v>2013</v>
       </c>
-      <c r="C271">
-        <v>2</v>
+      <c r="C271" t="s">
+        <v>103</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -4559,8 +4559,8 @@
       <c r="B273">
         <v>2013</v>
       </c>
-      <c r="C273">
-        <v>2</v>
+      <c r="C273" t="s">
+        <v>103</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4573,8 +4573,8 @@
       <c r="B274">
         <v>2013</v>
       </c>
-      <c r="C274">
-        <v>2</v>
+      <c r="C274" t="s">
+        <v>103</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4587,8 +4587,8 @@
       <c r="B275">
         <v>2013</v>
       </c>
-      <c r="C275">
-        <v>1</v>
+      <c r="C275" t="s">
+        <v>103</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -4601,8 +4601,8 @@
       <c r="B276">
         <v>2013</v>
       </c>
-      <c r="C276">
-        <v>3</v>
+      <c r="C276" t="s">
+        <v>103</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -4629,8 +4629,8 @@
       <c r="B278">
         <v>2013</v>
       </c>
-      <c r="C278">
-        <v>2</v>
+      <c r="C278" t="s">
+        <v>103</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -4643,8 +4643,8 @@
       <c r="B279">
         <v>2013</v>
       </c>
-      <c r="C279">
-        <v>2</v>
+      <c r="C279" t="s">
+        <v>103</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -4657,8 +4657,8 @@
       <c r="B280">
         <v>2013</v>
       </c>
-      <c r="C280">
-        <v>1</v>
+      <c r="C280" t="s">
+        <v>103</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -4671,8 +4671,8 @@
       <c r="B281">
         <v>2013</v>
       </c>
-      <c r="C281">
-        <v>2</v>
+      <c r="C281" t="s">
+        <v>103</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -4685,8 +4685,8 @@
       <c r="B282">
         <v>2013</v>
       </c>
-      <c r="C282">
-        <v>2</v>
+      <c r="C282" t="s">
+        <v>103</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -4713,8 +4713,8 @@
       <c r="B284">
         <v>2013</v>
       </c>
-      <c r="C284">
-        <v>2</v>
+      <c r="C284" t="s">
+        <v>103</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -4727,8 +4727,8 @@
       <c r="B285">
         <v>2013</v>
       </c>
-      <c r="C285">
-        <v>2</v>
+      <c r="C285" t="s">
+        <v>103</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -4741,8 +4741,8 @@
       <c r="B286">
         <v>2013</v>
       </c>
-      <c r="C286">
-        <v>3</v>
+      <c r="C286" t="s">
+        <v>103</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -4769,8 +4769,8 @@
       <c r="B288">
         <v>2013</v>
       </c>
-      <c r="C288">
-        <v>2</v>
+      <c r="C288" t="s">
+        <v>103</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -4783,8 +4783,8 @@
       <c r="B289">
         <v>2013</v>
       </c>
-      <c r="C289">
-        <v>2</v>
+      <c r="C289" t="s">
+        <v>103</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -4797,8 +4797,8 @@
       <c r="B290">
         <v>2013</v>
       </c>
-      <c r="C290">
-        <v>2</v>
+      <c r="C290" t="s">
+        <v>103</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4811,8 +4811,8 @@
       <c r="B291">
         <v>2013</v>
       </c>
-      <c r="C291">
-        <v>3</v>
+      <c r="C291" t="s">
+        <v>103</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -4825,8 +4825,8 @@
       <c r="B292">
         <v>2013</v>
       </c>
-      <c r="C292">
-        <v>2</v>
+      <c r="C292" t="s">
+        <v>103</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -4839,8 +4839,8 @@
       <c r="B293">
         <v>2013</v>
       </c>
-      <c r="C293">
-        <v>1</v>
+      <c r="C293" t="s">
+        <v>103</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -4853,8 +4853,8 @@
       <c r="B294">
         <v>2013</v>
       </c>
-      <c r="C294">
-        <v>2</v>
+      <c r="C294" t="s">
+        <v>103</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -4867,8 +4867,8 @@
       <c r="B295">
         <v>2013</v>
       </c>
-      <c r="C295">
-        <v>2</v>
+      <c r="C295" t="s">
+        <v>103</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -4881,8 +4881,8 @@
       <c r="B296">
         <v>2013</v>
       </c>
-      <c r="C296">
-        <v>3</v>
+      <c r="C296" t="s">
+        <v>103</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -4895,8 +4895,8 @@
       <c r="B297">
         <v>2013</v>
       </c>
-      <c r="C297">
-        <v>3</v>
+      <c r="C297" t="s">
+        <v>103</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -4909,8 +4909,8 @@
       <c r="B298">
         <v>2013</v>
       </c>
-      <c r="C298">
-        <v>2</v>
+      <c r="C298" t="s">
+        <v>103</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -4923,8 +4923,8 @@
       <c r="B299">
         <v>2014</v>
       </c>
-      <c r="C299">
-        <v>1</v>
+      <c r="C299" t="s">
+        <v>103</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -4937,8 +4937,8 @@
       <c r="B300">
         <v>2014</v>
       </c>
-      <c r="C300">
-        <v>2</v>
+      <c r="C300" t="s">
+        <v>103</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -4951,8 +4951,8 @@
       <c r="B301">
         <v>2014</v>
       </c>
-      <c r="C301">
-        <v>2</v>
+      <c r="C301" t="s">
+        <v>103</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -4965,8 +4965,8 @@
       <c r="B302">
         <v>2014</v>
       </c>
-      <c r="C302">
-        <v>2</v>
+      <c r="C302" t="s">
+        <v>103</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -4993,8 +4993,8 @@
       <c r="B304">
         <v>2014</v>
       </c>
-      <c r="C304">
-        <v>3</v>
+      <c r="C304" t="s">
+        <v>103</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -5007,8 +5007,8 @@
       <c r="B305">
         <v>2014</v>
       </c>
-      <c r="C305">
-        <v>2</v>
+      <c r="C305" t="s">
+        <v>103</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -5035,8 +5035,8 @@
       <c r="B307">
         <v>2014</v>
       </c>
-      <c r="C307">
-        <v>2</v>
+      <c r="C307" t="s">
+        <v>103</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -5063,8 +5063,8 @@
       <c r="B309">
         <v>2014</v>
       </c>
-      <c r="C309">
-        <v>3</v>
+      <c r="C309" t="s">
+        <v>103</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -5077,8 +5077,8 @@
       <c r="B310">
         <v>2014</v>
       </c>
-      <c r="C310">
-        <v>2</v>
+      <c r="C310" t="s">
+        <v>103</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5091,8 +5091,8 @@
       <c r="B311">
         <v>2014</v>
       </c>
-      <c r="C311">
-        <v>2</v>
+      <c r="C311" t="s">
+        <v>103</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -5105,8 +5105,8 @@
       <c r="B312">
         <v>2014</v>
       </c>
-      <c r="C312">
-        <v>1</v>
+      <c r="C312" t="s">
+        <v>103</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -5133,8 +5133,8 @@
       <c r="B314">
         <v>2014</v>
       </c>
-      <c r="C314">
-        <v>2</v>
+      <c r="C314" t="s">
+        <v>103</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -5147,8 +5147,8 @@
       <c r="B315">
         <v>2014</v>
       </c>
-      <c r="C315">
-        <v>2</v>
+      <c r="C315" t="s">
+        <v>103</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -5161,8 +5161,8 @@
       <c r="B316">
         <v>2014</v>
       </c>
-      <c r="C316">
-        <v>2</v>
+      <c r="C316" t="s">
+        <v>103</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -5175,8 +5175,8 @@
       <c r="B317">
         <v>2014</v>
       </c>
-      <c r="C317">
-        <v>2</v>
+      <c r="C317" t="s">
+        <v>103</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -5189,8 +5189,8 @@
       <c r="B318">
         <v>2014</v>
       </c>
-      <c r="C318">
-        <v>2</v>
+      <c r="C318" t="s">
+        <v>103</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -5203,8 +5203,8 @@
       <c r="B319">
         <v>2014</v>
       </c>
-      <c r="C319">
-        <v>2</v>
+      <c r="C319" t="s">
+        <v>103</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -5217,8 +5217,8 @@
       <c r="B320">
         <v>2014</v>
       </c>
-      <c r="C320">
-        <v>1</v>
+      <c r="C320" t="s">
+        <v>103</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -5231,8 +5231,8 @@
       <c r="B321">
         <v>2014</v>
       </c>
-      <c r="C321">
-        <v>2</v>
+      <c r="C321" t="s">
+        <v>103</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -5245,8 +5245,8 @@
       <c r="B322">
         <v>2014</v>
       </c>
-      <c r="C322">
-        <v>2</v>
+      <c r="C322" t="s">
+        <v>103</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -5259,8 +5259,8 @@
       <c r="B323">
         <v>2014</v>
       </c>
-      <c r="C323">
-        <v>1</v>
+      <c r="C323" t="s">
+        <v>103</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -5273,8 +5273,8 @@
       <c r="B324">
         <v>2014</v>
       </c>
-      <c r="C324">
-        <v>2</v>
+      <c r="C324" t="s">
+        <v>103</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -5287,8 +5287,8 @@
       <c r="B325">
         <v>2014</v>
       </c>
-      <c r="C325">
-        <v>2</v>
+      <c r="C325" t="s">
+        <v>103</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -5301,8 +5301,8 @@
       <c r="B326">
         <v>2014</v>
       </c>
-      <c r="C326">
-        <v>2</v>
+      <c r="C326" t="s">
+        <v>103</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -5315,8 +5315,8 @@
       <c r="B327">
         <v>2014</v>
       </c>
-      <c r="C327">
-        <v>2</v>
+      <c r="C327" t="s">
+        <v>103</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -5329,8 +5329,8 @@
       <c r="B328">
         <v>2014</v>
       </c>
-      <c r="C328">
-        <v>3</v>
+      <c r="C328" t="s">
+        <v>103</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -5343,8 +5343,8 @@
       <c r="B329">
         <v>2014</v>
       </c>
-      <c r="C329">
-        <v>3</v>
+      <c r="C329" t="s">
+        <v>103</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -5357,8 +5357,8 @@
       <c r="B330">
         <v>2014</v>
       </c>
-      <c r="C330">
-        <v>2</v>
+      <c r="C330" t="s">
+        <v>103</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -5371,8 +5371,8 @@
       <c r="B331">
         <v>2014</v>
       </c>
-      <c r="C331">
-        <v>2</v>
+      <c r="C331" t="s">
+        <v>103</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -5385,8 +5385,8 @@
       <c r="B332">
         <v>2014</v>
       </c>
-      <c r="C332">
-        <v>2</v>
+      <c r="C332" t="s">
+        <v>103</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -5399,8 +5399,8 @@
       <c r="B333">
         <v>2014</v>
       </c>
-      <c r="C333">
-        <v>2</v>
+      <c r="C333" t="s">
+        <v>103</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -5413,8 +5413,8 @@
       <c r="B334">
         <v>2014</v>
       </c>
-      <c r="C334">
-        <v>2</v>
+      <c r="C334" t="s">
+        <v>103</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -5441,8 +5441,8 @@
       <c r="B336">
         <v>2014</v>
       </c>
-      <c r="C336">
-        <v>2</v>
+      <c r="C336" t="s">
+        <v>103</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -5469,8 +5469,8 @@
       <c r="B338">
         <v>2014</v>
       </c>
-      <c r="C338">
-        <v>2</v>
+      <c r="C338" t="s">
+        <v>103</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -5483,8 +5483,8 @@
       <c r="B339">
         <v>2014</v>
       </c>
-      <c r="C339">
-        <v>2</v>
+      <c r="C339" t="s">
+        <v>103</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -5497,8 +5497,8 @@
       <c r="B340">
         <v>2014</v>
       </c>
-      <c r="C340">
-        <v>2</v>
+      <c r="C340" t="s">
+        <v>103</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -5525,8 +5525,8 @@
       <c r="B342">
         <v>2014</v>
       </c>
-      <c r="C342">
-        <v>2</v>
+      <c r="C342" t="s">
+        <v>103</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -5553,8 +5553,8 @@
       <c r="B344">
         <v>2014</v>
       </c>
-      <c r="C344">
-        <v>2</v>
+      <c r="C344" t="s">
+        <v>103</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -5567,8 +5567,8 @@
       <c r="B345">
         <v>2014</v>
       </c>
-      <c r="C345">
-        <v>2</v>
+      <c r="C345" t="s">
+        <v>103</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -5609,8 +5609,8 @@
       <c r="B348">
         <v>2014</v>
       </c>
-      <c r="C348">
-        <v>2</v>
+      <c r="C348" t="s">
+        <v>103</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -5623,8 +5623,8 @@
       <c r="B349">
         <v>2014</v>
       </c>
-      <c r="C349">
-        <v>2</v>
+      <c r="C349" t="s">
+        <v>103</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -5637,8 +5637,8 @@
       <c r="B350">
         <v>2014</v>
       </c>
-      <c r="C350">
-        <v>2</v>
+      <c r="C350" t="s">
+        <v>103</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -5665,8 +5665,8 @@
       <c r="B352">
         <v>2014</v>
       </c>
-      <c r="C352">
-        <v>2</v>
+      <c r="C352" t="s">
+        <v>103</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -5679,8 +5679,8 @@
       <c r="B353">
         <v>2014</v>
       </c>
-      <c r="C353">
-        <v>2</v>
+      <c r="C353" t="s">
+        <v>103</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -5693,8 +5693,8 @@
       <c r="B354">
         <v>2014</v>
       </c>
-      <c r="C354">
-        <v>1</v>
+      <c r="C354" t="s">
+        <v>103</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -5721,8 +5721,8 @@
       <c r="B356">
         <v>2014</v>
       </c>
-      <c r="C356">
-        <v>3</v>
+      <c r="C356" t="s">
+        <v>103</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -5749,8 +5749,8 @@
       <c r="B358">
         <v>2014</v>
       </c>
-      <c r="C358">
-        <v>2</v>
+      <c r="C358" t="s">
+        <v>103</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -5763,8 +5763,8 @@
       <c r="B359">
         <v>2014</v>
       </c>
-      <c r="C359">
-        <v>2</v>
+      <c r="C359" t="s">
+        <v>103</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -5805,8 +5805,8 @@
       <c r="B362">
         <v>2014</v>
       </c>
-      <c r="C362">
-        <v>2</v>
+      <c r="C362" t="s">
+        <v>103</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -5819,8 +5819,8 @@
       <c r="B363">
         <v>2014</v>
       </c>
-      <c r="C363">
-        <v>3</v>
+      <c r="C363" t="s">
+        <v>103</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -5847,8 +5847,8 @@
       <c r="B365">
         <v>2014</v>
       </c>
-      <c r="C365">
-        <v>3</v>
+      <c r="C365" t="s">
+        <v>103</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -5875,8 +5875,8 @@
       <c r="B367">
         <v>2014</v>
       </c>
-      <c r="C367">
-        <v>1</v>
+      <c r="C367" t="s">
+        <v>103</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -5889,8 +5889,8 @@
       <c r="B368">
         <v>2014</v>
       </c>
-      <c r="C368">
-        <v>2</v>
+      <c r="C368" t="s">
+        <v>103</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -5917,8 +5917,8 @@
       <c r="B370">
         <v>2014</v>
       </c>
-      <c r="C370">
-        <v>2</v>
+      <c r="C370" t="s">
+        <v>103</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -5945,8 +5945,8 @@
       <c r="B372">
         <v>2014</v>
       </c>
-      <c r="C372">
-        <v>2</v>
+      <c r="C372" t="s">
+        <v>103</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -5959,8 +5959,8 @@
       <c r="B373">
         <v>2014</v>
       </c>
-      <c r="C373">
-        <v>2</v>
+      <c r="C373" t="s">
+        <v>103</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -5973,8 +5973,8 @@
       <c r="B374">
         <v>2014</v>
       </c>
-      <c r="C374">
-        <v>1</v>
+      <c r="C374" t="s">
+        <v>103</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -5987,8 +5987,8 @@
       <c r="B375">
         <v>2014</v>
       </c>
-      <c r="C375">
-        <v>3</v>
+      <c r="C375" t="s">
+        <v>103</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -6015,8 +6015,8 @@
       <c r="B377">
         <v>2014</v>
       </c>
-      <c r="C377">
-        <v>2</v>
+      <c r="C377" t="s">
+        <v>103</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -6029,8 +6029,8 @@
       <c r="B378">
         <v>2014</v>
       </c>
-      <c r="C378">
-        <v>2</v>
+      <c r="C378" t="s">
+        <v>103</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -6043,8 +6043,8 @@
       <c r="B379">
         <v>2014</v>
       </c>
-      <c r="C379">
-        <v>1</v>
+      <c r="C379" t="s">
+        <v>103</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -6057,8 +6057,8 @@
       <c r="B380">
         <v>2014</v>
       </c>
-      <c r="C380">
-        <v>2</v>
+      <c r="C380" t="s">
+        <v>103</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -6071,8 +6071,8 @@
       <c r="B381">
         <v>2014</v>
       </c>
-      <c r="C381">
-        <v>2</v>
+      <c r="C381" t="s">
+        <v>103</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -6099,8 +6099,8 @@
       <c r="B383">
         <v>2014</v>
       </c>
-      <c r="C383">
-        <v>2</v>
+      <c r="C383" t="s">
+        <v>103</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -6113,8 +6113,8 @@
       <c r="B384">
         <v>2014</v>
       </c>
-      <c r="C384">
-        <v>2</v>
+      <c r="C384" t="s">
+        <v>103</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -6127,8 +6127,8 @@
       <c r="B385">
         <v>2014</v>
       </c>
-      <c r="C385">
-        <v>3</v>
+      <c r="C385" t="s">
+        <v>103</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -6155,8 +6155,8 @@
       <c r="B387">
         <v>2014</v>
       </c>
-      <c r="C387">
-        <v>2</v>
+      <c r="C387" t="s">
+        <v>103</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -6169,8 +6169,8 @@
       <c r="B388">
         <v>2014</v>
       </c>
-      <c r="C388">
-        <v>2</v>
+      <c r="C388" t="s">
+        <v>103</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -6183,8 +6183,8 @@
       <c r="B389">
         <v>2014</v>
       </c>
-      <c r="C389">
-        <v>2</v>
+      <c r="C389" t="s">
+        <v>103</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -6197,8 +6197,8 @@
       <c r="B390">
         <v>2014</v>
       </c>
-      <c r="C390">
-        <v>3</v>
+      <c r="C390" t="s">
+        <v>103</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -6211,8 +6211,8 @@
       <c r="B391">
         <v>2014</v>
       </c>
-      <c r="C391">
-        <v>2</v>
+      <c r="C391" t="s">
+        <v>103</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -6225,8 +6225,8 @@
       <c r="B392">
         <v>2014</v>
       </c>
-      <c r="C392">
-        <v>1</v>
+      <c r="C392" t="s">
+        <v>103</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -6239,8 +6239,8 @@
       <c r="B393">
         <v>2014</v>
       </c>
-      <c r="C393">
-        <v>2</v>
+      <c r="C393" t="s">
+        <v>103</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -6253,8 +6253,8 @@
       <c r="B394">
         <v>2014</v>
       </c>
-      <c r="C394">
-        <v>2</v>
+      <c r="C394" t="s">
+        <v>103</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -6267,8 +6267,8 @@
       <c r="B395">
         <v>2014</v>
       </c>
-      <c r="C395">
-        <v>3</v>
+      <c r="C395" t="s">
+        <v>103</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -6281,8 +6281,8 @@
       <c r="B396">
         <v>2014</v>
       </c>
-      <c r="C396">
-        <v>3</v>
+      <c r="C396" t="s">
+        <v>103</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -6295,8 +6295,8 @@
       <c r="B397">
         <v>2014</v>
       </c>
-      <c r="C397">
-        <v>2</v>
+      <c r="C397" t="s">
+        <v>103</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -6309,8 +6309,8 @@
       <c r="B398">
         <v>2015</v>
       </c>
-      <c r="C398">
-        <v>1</v>
+      <c r="C398" t="s">
+        <v>103</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -6323,8 +6323,8 @@
       <c r="B399">
         <v>2015</v>
       </c>
-      <c r="C399">
-        <v>2</v>
+      <c r="C399" t="s">
+        <v>103</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -6337,8 +6337,8 @@
       <c r="B400">
         <v>2015</v>
       </c>
-      <c r="C400">
-        <v>2</v>
+      <c r="C400" t="s">
+        <v>103</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -6351,8 +6351,8 @@
       <c r="B401">
         <v>2015</v>
       </c>
-      <c r="C401">
-        <v>2</v>
+      <c r="C401" t="s">
+        <v>103</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -6379,8 +6379,8 @@
       <c r="B403">
         <v>2015</v>
       </c>
-      <c r="C403">
-        <v>3</v>
+      <c r="C403" t="s">
+        <v>103</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -6393,8 +6393,8 @@
       <c r="B404">
         <v>2015</v>
       </c>
-      <c r="C404">
-        <v>2</v>
+      <c r="C404" t="s">
+        <v>103</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -6421,8 +6421,8 @@
       <c r="B406">
         <v>2015</v>
       </c>
-      <c r="C406">
-        <v>2</v>
+      <c r="C406" t="s">
+        <v>103</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -6449,8 +6449,8 @@
       <c r="B408">
         <v>2015</v>
       </c>
-      <c r="C408">
-        <v>3</v>
+      <c r="C408" t="s">
+        <v>103</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -6463,8 +6463,8 @@
       <c r="B409">
         <v>2015</v>
       </c>
-      <c r="C409">
-        <v>2</v>
+      <c r="C409" t="s">
+        <v>103</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -6477,8 +6477,8 @@
       <c r="B410">
         <v>2015</v>
       </c>
-      <c r="C410">
-        <v>2</v>
+      <c r="C410" t="s">
+        <v>103</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -6491,8 +6491,8 @@
       <c r="B411">
         <v>2015</v>
       </c>
-      <c r="C411">
-        <v>1</v>
+      <c r="C411" t="s">
+        <v>103</v>
       </c>
       <c r="D411">
         <v>0</v>
@@ -6519,8 +6519,8 @@
       <c r="B413">
         <v>2015</v>
       </c>
-      <c r="C413">
-        <v>2</v>
+      <c r="C413" t="s">
+        <v>103</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -6533,8 +6533,8 @@
       <c r="B414">
         <v>2015</v>
       </c>
-      <c r="C414">
-        <v>2</v>
+      <c r="C414" t="s">
+        <v>103</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -6547,8 +6547,8 @@
       <c r="B415">
         <v>2015</v>
       </c>
-      <c r="C415">
-        <v>2</v>
+      <c r="C415" t="s">
+        <v>103</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -6561,8 +6561,8 @@
       <c r="B416">
         <v>2015</v>
       </c>
-      <c r="C416">
-        <v>2</v>
+      <c r="C416" t="s">
+        <v>103</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -6575,8 +6575,8 @@
       <c r="B417">
         <v>2015</v>
       </c>
-      <c r="C417">
-        <v>2</v>
+      <c r="C417" t="s">
+        <v>103</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -6589,8 +6589,8 @@
       <c r="B418">
         <v>2015</v>
       </c>
-      <c r="C418">
-        <v>2</v>
+      <c r="C418" t="s">
+        <v>103</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -6603,8 +6603,8 @@
       <c r="B419">
         <v>2015</v>
       </c>
-      <c r="C419">
-        <v>1</v>
+      <c r="C419" t="s">
+        <v>103</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -6617,8 +6617,8 @@
       <c r="B420">
         <v>2015</v>
       </c>
-      <c r="C420">
-        <v>2</v>
+      <c r="C420" t="s">
+        <v>103</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -6631,8 +6631,8 @@
       <c r="B421">
         <v>2015</v>
       </c>
-      <c r="C421">
-        <v>2</v>
+      <c r="C421" t="s">
+        <v>103</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -6645,8 +6645,8 @@
       <c r="B422">
         <v>2015</v>
       </c>
-      <c r="C422">
-        <v>1</v>
+      <c r="C422" t="s">
+        <v>103</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -6659,8 +6659,8 @@
       <c r="B423">
         <v>2015</v>
       </c>
-      <c r="C423">
-        <v>2</v>
+      <c r="C423" t="s">
+        <v>103</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -6673,8 +6673,8 @@
       <c r="B424">
         <v>2015</v>
       </c>
-      <c r="C424">
-        <v>2</v>
+      <c r="C424" t="s">
+        <v>103</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -6687,8 +6687,8 @@
       <c r="B425">
         <v>2015</v>
       </c>
-      <c r="C425">
-        <v>2</v>
+      <c r="C425" t="s">
+        <v>103</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -6701,8 +6701,8 @@
       <c r="B426">
         <v>2015</v>
       </c>
-      <c r="C426">
-        <v>2</v>
+      <c r="C426" t="s">
+        <v>103</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -6715,8 +6715,8 @@
       <c r="B427">
         <v>2015</v>
       </c>
-      <c r="C427">
-        <v>3</v>
+      <c r="C427" t="s">
+        <v>103</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -6729,8 +6729,8 @@
       <c r="B428">
         <v>2015</v>
       </c>
-      <c r="C428">
-        <v>3</v>
+      <c r="C428" t="s">
+        <v>103</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -6743,8 +6743,8 @@
       <c r="B429">
         <v>2015</v>
       </c>
-      <c r="C429">
-        <v>2</v>
+      <c r="C429" t="s">
+        <v>103</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -6757,8 +6757,8 @@
       <c r="B430">
         <v>2015</v>
       </c>
-      <c r="C430">
-        <v>2</v>
+      <c r="C430" t="s">
+        <v>103</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -6771,8 +6771,8 @@
       <c r="B431">
         <v>2015</v>
       </c>
-      <c r="C431">
-        <v>2</v>
+      <c r="C431" t="s">
+        <v>103</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -6785,8 +6785,8 @@
       <c r="B432">
         <v>2015</v>
       </c>
-      <c r="C432">
-        <v>2</v>
+      <c r="C432" t="s">
+        <v>103</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -6799,8 +6799,8 @@
       <c r="B433">
         <v>2015</v>
       </c>
-      <c r="C433">
-        <v>2</v>
+      <c r="C433" t="s">
+        <v>103</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -6827,8 +6827,8 @@
       <c r="B435">
         <v>2015</v>
       </c>
-      <c r="C435">
-        <v>2</v>
+      <c r="C435" t="s">
+        <v>103</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -6855,8 +6855,8 @@
       <c r="B437">
         <v>2015</v>
       </c>
-      <c r="C437">
-        <v>2</v>
+      <c r="C437" t="s">
+        <v>103</v>
       </c>
       <c r="D437">
         <v>1</v>
@@ -6869,8 +6869,8 @@
       <c r="B438">
         <v>2015</v>
       </c>
-      <c r="C438">
-        <v>2</v>
+      <c r="C438" t="s">
+        <v>103</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -6883,8 +6883,8 @@
       <c r="B439">
         <v>2015</v>
       </c>
-      <c r="C439">
-        <v>2</v>
+      <c r="C439" t="s">
+        <v>103</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -6911,8 +6911,8 @@
       <c r="B441">
         <v>2015</v>
       </c>
-      <c r="C441">
-        <v>2</v>
+      <c r="C441" t="s">
+        <v>103</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -6939,8 +6939,8 @@
       <c r="B443">
         <v>2015</v>
       </c>
-      <c r="C443">
-        <v>2</v>
+      <c r="C443" t="s">
+        <v>103</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -6953,8 +6953,8 @@
       <c r="B444">
         <v>2015</v>
       </c>
-      <c r="C444">
-        <v>2</v>
+      <c r="C444" t="s">
+        <v>103</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -6995,8 +6995,8 @@
       <c r="B447">
         <v>2015</v>
       </c>
-      <c r="C447">
-        <v>2</v>
+      <c r="C447" t="s">
+        <v>103</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -7009,8 +7009,8 @@
       <c r="B448">
         <v>2015</v>
       </c>
-      <c r="C448">
-        <v>2</v>
+      <c r="C448" t="s">
+        <v>103</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -7023,8 +7023,8 @@
       <c r="B449">
         <v>2015</v>
       </c>
-      <c r="C449">
-        <v>2</v>
+      <c r="C449" t="s">
+        <v>103</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -7051,8 +7051,8 @@
       <c r="B451">
         <v>2015</v>
       </c>
-      <c r="C451">
-        <v>2</v>
+      <c r="C451" t="s">
+        <v>103</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -7065,8 +7065,8 @@
       <c r="B452">
         <v>2015</v>
       </c>
-      <c r="C452">
-        <v>2</v>
+      <c r="C452" t="s">
+        <v>103</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -7079,8 +7079,8 @@
       <c r="B453">
         <v>2015</v>
       </c>
-      <c r="C453">
-        <v>1</v>
+      <c r="C453" t="s">
+        <v>103</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -7107,8 +7107,8 @@
       <c r="B455">
         <v>2015</v>
       </c>
-      <c r="C455">
-        <v>3</v>
+      <c r="C455" t="s">
+        <v>103</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -7135,8 +7135,8 @@
       <c r="B457">
         <v>2015</v>
       </c>
-      <c r="C457">
-        <v>2</v>
+      <c r="C457" t="s">
+        <v>103</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -7149,8 +7149,8 @@
       <c r="B458">
         <v>2015</v>
       </c>
-      <c r="C458">
-        <v>2</v>
+      <c r="C458" t="s">
+        <v>103</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -7191,8 +7191,8 @@
       <c r="B461">
         <v>2015</v>
       </c>
-      <c r="C461">
-        <v>2</v>
+      <c r="C461" t="s">
+        <v>103</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -7205,8 +7205,8 @@
       <c r="B462">
         <v>2015</v>
       </c>
-      <c r="C462">
-        <v>3</v>
+      <c r="C462" t="s">
+        <v>103</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -7233,8 +7233,8 @@
       <c r="B464">
         <v>2015</v>
       </c>
-      <c r="C464">
-        <v>3</v>
+      <c r="C464" t="s">
+        <v>103</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -7261,8 +7261,8 @@
       <c r="B466">
         <v>2015</v>
       </c>
-      <c r="C466">
-        <v>1</v>
+      <c r="C466" t="s">
+        <v>103</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -7275,8 +7275,8 @@
       <c r="B467">
         <v>2015</v>
       </c>
-      <c r="C467">
-        <v>2</v>
+      <c r="C467" t="s">
+        <v>103</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -7303,8 +7303,8 @@
       <c r="B469">
         <v>2015</v>
       </c>
-      <c r="C469">
-        <v>2</v>
+      <c r="C469" t="s">
+        <v>103</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -7331,8 +7331,8 @@
       <c r="B471">
         <v>2015</v>
       </c>
-      <c r="C471">
-        <v>2</v>
+      <c r="C471" t="s">
+        <v>103</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -7345,8 +7345,8 @@
       <c r="B472">
         <v>2015</v>
       </c>
-      <c r="C472">
-        <v>2</v>
+      <c r="C472" t="s">
+        <v>103</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -7359,8 +7359,8 @@
       <c r="B473">
         <v>2015</v>
       </c>
-      <c r="C473">
-        <v>1</v>
+      <c r="C473" t="s">
+        <v>103</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -7373,8 +7373,8 @@
       <c r="B474">
         <v>2015</v>
       </c>
-      <c r="C474">
-        <v>3</v>
+      <c r="C474" t="s">
+        <v>103</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -7401,8 +7401,8 @@
       <c r="B476">
         <v>2015</v>
       </c>
-      <c r="C476">
-        <v>2</v>
+      <c r="C476" t="s">
+        <v>103</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -7415,8 +7415,8 @@
       <c r="B477">
         <v>2015</v>
       </c>
-      <c r="C477">
-        <v>2</v>
+      <c r="C477" t="s">
+        <v>103</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -7429,8 +7429,8 @@
       <c r="B478">
         <v>2015</v>
       </c>
-      <c r="C478">
-        <v>1</v>
+      <c r="C478" t="s">
+        <v>103</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -7443,8 +7443,8 @@
       <c r="B479">
         <v>2015</v>
       </c>
-      <c r="C479">
-        <v>2</v>
+      <c r="C479" t="s">
+        <v>103</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -7457,8 +7457,8 @@
       <c r="B480">
         <v>2015</v>
       </c>
-      <c r="C480">
-        <v>2</v>
+      <c r="C480" t="s">
+        <v>103</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -7485,8 +7485,8 @@
       <c r="B482">
         <v>2015</v>
       </c>
-      <c r="C482">
-        <v>2</v>
+      <c r="C482" t="s">
+        <v>103</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -7499,8 +7499,8 @@
       <c r="B483">
         <v>2015</v>
       </c>
-      <c r="C483">
-        <v>2</v>
+      <c r="C483" t="s">
+        <v>103</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -7513,8 +7513,8 @@
       <c r="B484">
         <v>2015</v>
       </c>
-      <c r="C484">
-        <v>3</v>
+      <c r="C484" t="s">
+        <v>103</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -7541,8 +7541,8 @@
       <c r="B486">
         <v>2015</v>
       </c>
-      <c r="C486">
-        <v>2</v>
+      <c r="C486" t="s">
+        <v>103</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -7555,8 +7555,8 @@
       <c r="B487">
         <v>2015</v>
       </c>
-      <c r="C487">
-        <v>2</v>
+      <c r="C487" t="s">
+        <v>103</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -7569,8 +7569,8 @@
       <c r="B488">
         <v>2015</v>
       </c>
-      <c r="C488">
-        <v>2</v>
+      <c r="C488" t="s">
+        <v>103</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -7583,8 +7583,8 @@
       <c r="B489">
         <v>2015</v>
       </c>
-      <c r="C489">
-        <v>3</v>
+      <c r="C489" t="s">
+        <v>103</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -7597,8 +7597,8 @@
       <c r="B490">
         <v>2015</v>
       </c>
-      <c r="C490">
-        <v>2</v>
+      <c r="C490" t="s">
+        <v>103</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -7611,8 +7611,8 @@
       <c r="B491">
         <v>2015</v>
       </c>
-      <c r="C491">
-        <v>1</v>
+      <c r="C491" t="s">
+        <v>103</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -7625,8 +7625,8 @@
       <c r="B492">
         <v>2015</v>
       </c>
-      <c r="C492">
-        <v>2</v>
+      <c r="C492" t="s">
+        <v>103</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -7639,8 +7639,8 @@
       <c r="B493">
         <v>2015</v>
       </c>
-      <c r="C493">
-        <v>2</v>
+      <c r="C493" t="s">
+        <v>103</v>
       </c>
       <c r="D493">
         <v>1</v>
@@ -7653,8 +7653,8 @@
       <c r="B494">
         <v>2015</v>
       </c>
-      <c r="C494">
-        <v>3</v>
+      <c r="C494" t="s">
+        <v>103</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -7667,8 +7667,8 @@
       <c r="B495">
         <v>2015</v>
       </c>
-      <c r="C495">
-        <v>3</v>
+      <c r="C495" t="s">
+        <v>103</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -7681,8 +7681,8 @@
       <c r="B496">
         <v>2015</v>
       </c>
-      <c r="C496">
-        <v>2</v>
+      <c r="C496" t="s">
+        <v>103</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -7695,8 +7695,8 @@
       <c r="B497">
         <v>2016</v>
       </c>
-      <c r="C497">
-        <v>1</v>
+      <c r="C497" t="s">
+        <v>103</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -7709,8 +7709,8 @@
       <c r="B498">
         <v>2016</v>
       </c>
-      <c r="C498">
-        <v>2</v>
+      <c r="C498" t="s">
+        <v>103</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -7723,8 +7723,8 @@
       <c r="B499">
         <v>2016</v>
       </c>
-      <c r="C499">
-        <v>2</v>
+      <c r="C499" t="s">
+        <v>103</v>
       </c>
       <c r="D499">
         <v>1</v>
@@ -7737,8 +7737,8 @@
       <c r="B500">
         <v>2016</v>
       </c>
-      <c r="C500">
-        <v>2</v>
+      <c r="C500" t="s">
+        <v>103</v>
       </c>
       <c r="D500">
         <v>1</v>
@@ -7765,8 +7765,8 @@
       <c r="B502">
         <v>2016</v>
       </c>
-      <c r="C502">
-        <v>3</v>
+      <c r="C502" t="s">
+        <v>103</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -7779,8 +7779,8 @@
       <c r="B503">
         <v>2016</v>
       </c>
-      <c r="C503">
-        <v>2</v>
+      <c r="C503" t="s">
+        <v>103</v>
       </c>
       <c r="D503">
         <v>1</v>
@@ -7807,8 +7807,8 @@
       <c r="B505">
         <v>2016</v>
       </c>
-      <c r="C505">
-        <v>2</v>
+      <c r="C505" t="s">
+        <v>103</v>
       </c>
       <c r="D505">
         <v>1</v>
@@ -7835,8 +7835,8 @@
       <c r="B507">
         <v>2016</v>
       </c>
-      <c r="C507">
-        <v>3</v>
+      <c r="C507" t="s">
+        <v>103</v>
       </c>
       <c r="D507">
         <v>1</v>
@@ -7849,8 +7849,8 @@
       <c r="B508">
         <v>2016</v>
       </c>
-      <c r="C508">
-        <v>2</v>
+      <c r="C508" t="s">
+        <v>103</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -7863,8 +7863,8 @@
       <c r="B509">
         <v>2016</v>
       </c>
-      <c r="C509">
-        <v>2</v>
+      <c r="C509" t="s">
+        <v>103</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -7877,8 +7877,8 @@
       <c r="B510">
         <v>2016</v>
       </c>
-      <c r="C510">
-        <v>1</v>
+      <c r="C510" t="s">
+        <v>103</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -7905,8 +7905,8 @@
       <c r="B512">
         <v>2016</v>
       </c>
-      <c r="C512">
-        <v>2</v>
+      <c r="C512" t="s">
+        <v>103</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -7919,8 +7919,8 @@
       <c r="B513">
         <v>2016</v>
       </c>
-      <c r="C513">
-        <v>2</v>
+      <c r="C513" t="s">
+        <v>103</v>
       </c>
       <c r="D513">
         <v>1</v>
@@ -7933,8 +7933,8 @@
       <c r="B514">
         <v>2016</v>
       </c>
-      <c r="C514">
-        <v>2</v>
+      <c r="C514" t="s">
+        <v>103</v>
       </c>
       <c r="D514">
         <v>1</v>
@@ -7947,8 +7947,8 @@
       <c r="B515">
         <v>2016</v>
       </c>
-      <c r="C515">
-        <v>2</v>
+      <c r="C515" t="s">
+        <v>103</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -7961,8 +7961,8 @@
       <c r="B516">
         <v>2016</v>
       </c>
-      <c r="C516">
-        <v>2</v>
+      <c r="C516" t="s">
+        <v>103</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -7975,8 +7975,8 @@
       <c r="B517">
         <v>2016</v>
       </c>
-      <c r="C517">
-        <v>2</v>
+      <c r="C517" t="s">
+        <v>103</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -7989,8 +7989,8 @@
       <c r="B518">
         <v>2016</v>
       </c>
-      <c r="C518">
-        <v>1</v>
+      <c r="C518" t="s">
+        <v>103</v>
       </c>
       <c r="D518">
         <v>1</v>
@@ -8003,8 +8003,8 @@
       <c r="B519">
         <v>2016</v>
       </c>
-      <c r="C519">
-        <v>2</v>
+      <c r="C519" t="s">
+        <v>103</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -8017,8 +8017,8 @@
       <c r="B520">
         <v>2016</v>
       </c>
-      <c r="C520">
-        <v>2</v>
+      <c r="C520" t="s">
+        <v>103</v>
       </c>
       <c r="D520">
         <v>1</v>
@@ -8031,8 +8031,8 @@
       <c r="B521">
         <v>2016</v>
       </c>
-      <c r="C521">
-        <v>1</v>
+      <c r="C521" t="s">
+        <v>103</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -8045,8 +8045,8 @@
       <c r="B522">
         <v>2016</v>
       </c>
-      <c r="C522">
-        <v>2</v>
+      <c r="C522" t="s">
+        <v>103</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -8059,8 +8059,8 @@
       <c r="B523">
         <v>2016</v>
       </c>
-      <c r="C523">
-        <v>2</v>
+      <c r="C523" t="s">
+        <v>103</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -8073,8 +8073,8 @@
       <c r="B524">
         <v>2016</v>
       </c>
-      <c r="C524">
-        <v>2</v>
+      <c r="C524" t="s">
+        <v>103</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -8087,8 +8087,8 @@
       <c r="B525">
         <v>2016</v>
       </c>
-      <c r="C525">
-        <v>2</v>
+      <c r="C525" t="s">
+        <v>103</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -8101,8 +8101,8 @@
       <c r="B526">
         <v>2016</v>
       </c>
-      <c r="C526">
-        <v>3</v>
+      <c r="C526" t="s">
+        <v>103</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -8115,8 +8115,8 @@
       <c r="B527">
         <v>2016</v>
       </c>
-      <c r="C527">
-        <v>3</v>
+      <c r="C527" t="s">
+        <v>103</v>
       </c>
       <c r="D527">
         <v>1</v>
@@ -8129,8 +8129,8 @@
       <c r="B528">
         <v>2016</v>
       </c>
-      <c r="C528">
-        <v>2</v>
+      <c r="C528" t="s">
+        <v>103</v>
       </c>
       <c r="D528">
         <v>1</v>
@@ -8143,8 +8143,8 @@
       <c r="B529">
         <v>2016</v>
       </c>
-      <c r="C529">
-        <v>2</v>
+      <c r="C529" t="s">
+        <v>103</v>
       </c>
       <c r="D529">
         <v>1</v>
@@ -8157,8 +8157,8 @@
       <c r="B530">
         <v>2016</v>
       </c>
-      <c r="C530">
-        <v>2</v>
+      <c r="C530" t="s">
+        <v>103</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -8171,8 +8171,8 @@
       <c r="B531">
         <v>2016</v>
       </c>
-      <c r="C531">
-        <v>2</v>
+      <c r="C531" t="s">
+        <v>103</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -8185,8 +8185,8 @@
       <c r="B532">
         <v>2016</v>
       </c>
-      <c r="C532">
-        <v>2</v>
+      <c r="C532" t="s">
+        <v>103</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -8213,8 +8213,8 @@
       <c r="B534">
         <v>2016</v>
       </c>
-      <c r="C534">
-        <v>2</v>
+      <c r="C534" t="s">
+        <v>103</v>
       </c>
       <c r="D534">
         <v>1</v>
@@ -8241,8 +8241,8 @@
       <c r="B536">
         <v>2016</v>
       </c>
-      <c r="C536">
-        <v>2</v>
+      <c r="C536" t="s">
+        <v>103</v>
       </c>
       <c r="D536">
         <v>1</v>
@@ -8255,8 +8255,8 @@
       <c r="B537">
         <v>2016</v>
       </c>
-      <c r="C537">
-        <v>2</v>
+      <c r="C537" t="s">
+        <v>103</v>
       </c>
       <c r="D537">
         <v>1</v>
@@ -8269,8 +8269,8 @@
       <c r="B538">
         <v>2016</v>
       </c>
-      <c r="C538">
-        <v>2</v>
+      <c r="C538" t="s">
+        <v>103</v>
       </c>
       <c r="D538">
         <v>1</v>
@@ -8297,8 +8297,8 @@
       <c r="B540">
         <v>2016</v>
       </c>
-      <c r="C540">
-        <v>2</v>
+      <c r="C540" t="s">
+        <v>103</v>
       </c>
       <c r="D540">
         <v>1</v>
@@ -8325,8 +8325,8 @@
       <c r="B542">
         <v>2016</v>
       </c>
-      <c r="C542">
-        <v>2</v>
+      <c r="C542" t="s">
+        <v>103</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -8339,8 +8339,8 @@
       <c r="B543">
         <v>2016</v>
       </c>
-      <c r="C543">
-        <v>2</v>
+      <c r="C543" t="s">
+        <v>103</v>
       </c>
       <c r="D543">
         <v>1</v>
@@ -8381,8 +8381,8 @@
       <c r="B546">
         <v>2016</v>
       </c>
-      <c r="C546">
-        <v>2</v>
+      <c r="C546" t="s">
+        <v>103</v>
       </c>
       <c r="D546">
         <v>1</v>
@@ -8395,8 +8395,8 @@
       <c r="B547">
         <v>2016</v>
       </c>
-      <c r="C547">
-        <v>2</v>
+      <c r="C547" t="s">
+        <v>103</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -8409,8 +8409,8 @@
       <c r="B548">
         <v>2016</v>
       </c>
-      <c r="C548">
-        <v>2</v>
+      <c r="C548" t="s">
+        <v>103</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -8437,8 +8437,8 @@
       <c r="B550">
         <v>2016</v>
       </c>
-      <c r="C550">
-        <v>2</v>
+      <c r="C550" t="s">
+        <v>103</v>
       </c>
       <c r="D550">
         <v>1</v>
@@ -8451,8 +8451,8 @@
       <c r="B551">
         <v>2016</v>
       </c>
-      <c r="C551">
-        <v>2</v>
+      <c r="C551" t="s">
+        <v>103</v>
       </c>
       <c r="D551">
         <v>1</v>
@@ -8465,8 +8465,8 @@
       <c r="B552">
         <v>2016</v>
       </c>
-      <c r="C552">
-        <v>1</v>
+      <c r="C552" t="s">
+        <v>103</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -8493,8 +8493,8 @@
       <c r="B554">
         <v>2016</v>
       </c>
-      <c r="C554">
-        <v>3</v>
+      <c r="C554" t="s">
+        <v>103</v>
       </c>
       <c r="D554">
         <v>1</v>
@@ -8521,8 +8521,8 @@
       <c r="B556">
         <v>2016</v>
       </c>
-      <c r="C556">
-        <v>2</v>
+      <c r="C556" t="s">
+        <v>103</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -8535,8 +8535,8 @@
       <c r="B557">
         <v>2016</v>
       </c>
-      <c r="C557">
-        <v>2</v>
+      <c r="C557" t="s">
+        <v>103</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -8577,8 +8577,8 @@
       <c r="B560">
         <v>2016</v>
       </c>
-      <c r="C560">
-        <v>2</v>
+      <c r="C560" t="s">
+        <v>103</v>
       </c>
       <c r="D560">
         <v>1</v>
@@ -8591,8 +8591,8 @@
       <c r="B561">
         <v>2016</v>
       </c>
-      <c r="C561">
-        <v>3</v>
+      <c r="C561" t="s">
+        <v>103</v>
       </c>
       <c r="D561">
         <v>1</v>
@@ -8619,8 +8619,8 @@
       <c r="B563">
         <v>2016</v>
       </c>
-      <c r="C563">
-        <v>3</v>
+      <c r="C563" t="s">
+        <v>103</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -8647,8 +8647,8 @@
       <c r="B565">
         <v>2016</v>
       </c>
-      <c r="C565">
-        <v>1</v>
+      <c r="C565" t="s">
+        <v>103</v>
       </c>
       <c r="D565">
         <v>1</v>
@@ -8661,8 +8661,8 @@
       <c r="B566">
         <v>2016</v>
       </c>
-      <c r="C566">
-        <v>2</v>
+      <c r="C566" t="s">
+        <v>103</v>
       </c>
       <c r="D566">
         <v>1</v>
@@ -8689,8 +8689,8 @@
       <c r="B568">
         <v>2016</v>
       </c>
-      <c r="C568">
-        <v>2</v>
+      <c r="C568" t="s">
+        <v>103</v>
       </c>
       <c r="D568">
         <v>1</v>
@@ -8717,8 +8717,8 @@
       <c r="B570">
         <v>2016</v>
       </c>
-      <c r="C570">
-        <v>2</v>
+      <c r="C570" t="s">
+        <v>103</v>
       </c>
       <c r="D570">
         <v>1</v>
@@ -8731,8 +8731,8 @@
       <c r="B571">
         <v>2016</v>
       </c>
-      <c r="C571">
-        <v>2</v>
+      <c r="C571" t="s">
+        <v>103</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -8745,8 +8745,8 @@
       <c r="B572">
         <v>2016</v>
       </c>
-      <c r="C572">
-        <v>1</v>
+      <c r="C572" t="s">
+        <v>103</v>
       </c>
       <c r="D572">
         <v>0</v>
@@ -8759,8 +8759,8 @@
       <c r="B573">
         <v>2016</v>
       </c>
-      <c r="C573">
-        <v>3</v>
+      <c r="C573" t="s">
+        <v>103</v>
       </c>
       <c r="D573">
         <v>1</v>
@@ -8787,8 +8787,8 @@
       <c r="B575">
         <v>2016</v>
       </c>
-      <c r="C575">
-        <v>2</v>
+      <c r="C575" t="s">
+        <v>103</v>
       </c>
       <c r="D575">
         <v>1</v>
@@ -8801,8 +8801,8 @@
       <c r="B576">
         <v>2016</v>
       </c>
-      <c r="C576">
-        <v>2</v>
+      <c r="C576" t="s">
+        <v>103</v>
       </c>
       <c r="D576">
         <v>1</v>
@@ -8815,8 +8815,8 @@
       <c r="B577">
         <v>2016</v>
       </c>
-      <c r="C577">
-        <v>1</v>
+      <c r="C577" t="s">
+        <v>103</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -8829,8 +8829,8 @@
       <c r="B578">
         <v>2016</v>
       </c>
-      <c r="C578">
-        <v>2</v>
+      <c r="C578" t="s">
+        <v>103</v>
       </c>
       <c r="D578">
         <v>1</v>
@@ -8843,8 +8843,8 @@
       <c r="B579">
         <v>2016</v>
       </c>
-      <c r="C579">
-        <v>2</v>
+      <c r="C579" t="s">
+        <v>103</v>
       </c>
       <c r="D579">
         <v>1</v>
@@ -8871,8 +8871,8 @@
       <c r="B581">
         <v>2016</v>
       </c>
-      <c r="C581">
-        <v>2</v>
+      <c r="C581" t="s">
+        <v>103</v>
       </c>
       <c r="D581">
         <v>1</v>
@@ -8885,8 +8885,8 @@
       <c r="B582">
         <v>2016</v>
       </c>
-      <c r="C582">
-        <v>2</v>
+      <c r="C582" t="s">
+        <v>103</v>
       </c>
       <c r="D582">
         <v>1</v>
@@ -8899,8 +8899,8 @@
       <c r="B583">
         <v>2016</v>
       </c>
-      <c r="C583">
-        <v>3</v>
+      <c r="C583" t="s">
+        <v>103</v>
       </c>
       <c r="D583">
         <v>1</v>
@@ -8927,8 +8927,8 @@
       <c r="B585">
         <v>2016</v>
       </c>
-      <c r="C585">
-        <v>2</v>
+      <c r="C585" t="s">
+        <v>103</v>
       </c>
       <c r="D585">
         <v>1</v>
@@ -8941,8 +8941,8 @@
       <c r="B586">
         <v>2016</v>
       </c>
-      <c r="C586">
-        <v>2</v>
+      <c r="C586" t="s">
+        <v>103</v>
       </c>
       <c r="D586">
         <v>1</v>
@@ -8955,8 +8955,8 @@
       <c r="B587">
         <v>2016</v>
       </c>
-      <c r="C587">
-        <v>2</v>
+      <c r="C587" t="s">
+        <v>103</v>
       </c>
       <c r="D587">
         <v>1</v>
@@ -8969,8 +8969,8 @@
       <c r="B588">
         <v>2016</v>
       </c>
-      <c r="C588">
-        <v>3</v>
+      <c r="C588" t="s">
+        <v>103</v>
       </c>
       <c r="D588">
         <v>1</v>
@@ -8983,8 +8983,8 @@
       <c r="B589">
         <v>2016</v>
       </c>
-      <c r="C589">
-        <v>2</v>
+      <c r="C589" t="s">
+        <v>103</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -8997,8 +8997,8 @@
       <c r="B590">
         <v>2016</v>
       </c>
-      <c r="C590">
-        <v>1</v>
+      <c r="C590" t="s">
+        <v>103</v>
       </c>
       <c r="D590">
         <v>0</v>
@@ -9011,8 +9011,8 @@
       <c r="B591">
         <v>2016</v>
       </c>
-      <c r="C591">
-        <v>2</v>
+      <c r="C591" t="s">
+        <v>103</v>
       </c>
       <c r="D591">
         <v>1</v>
@@ -9025,8 +9025,8 @@
       <c r="B592">
         <v>2016</v>
       </c>
-      <c r="C592">
-        <v>2</v>
+      <c r="C592" t="s">
+        <v>103</v>
       </c>
       <c r="D592">
         <v>1</v>
@@ -9039,8 +9039,8 @@
       <c r="B593">
         <v>2016</v>
       </c>
-      <c r="C593">
-        <v>3</v>
+      <c r="C593" t="s">
+        <v>103</v>
       </c>
       <c r="D593">
         <v>1</v>
@@ -9053,8 +9053,8 @@
       <c r="B594">
         <v>2016</v>
       </c>
-      <c r="C594">
-        <v>3</v>
+      <c r="C594" t="s">
+        <v>103</v>
       </c>
       <c r="D594">
         <v>1</v>
@@ -9067,8 +9067,8 @@
       <c r="B595">
         <v>2016</v>
       </c>
-      <c r="C595">
-        <v>2</v>
+      <c r="C595" t="s">
+        <v>103</v>
       </c>
       <c r="D595">
         <v>1</v>
@@ -9081,8 +9081,8 @@
       <c r="B596">
         <v>2017</v>
       </c>
-      <c r="C596">
-        <v>1</v>
+      <c r="C596" t="s">
+        <v>103</v>
       </c>
       <c r="D596">
         <v>1</v>
@@ -9095,8 +9095,8 @@
       <c r="B597">
         <v>2017</v>
       </c>
-      <c r="C597">
-        <v>2</v>
+      <c r="C597" t="s">
+        <v>103</v>
       </c>
       <c r="D597">
         <v>1</v>
@@ -9109,8 +9109,8 @@
       <c r="B598">
         <v>2017</v>
       </c>
-      <c r="C598">
-        <v>2</v>
+      <c r="C598" t="s">
+        <v>103</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -9123,8 +9123,8 @@
       <c r="B599">
         <v>2017</v>
       </c>
-      <c r="C599">
-        <v>2</v>
+      <c r="C599" t="s">
+        <v>103</v>
       </c>
       <c r="D599">
         <v>1</v>
@@ -9151,8 +9151,8 @@
       <c r="B601">
         <v>2017</v>
       </c>
-      <c r="C601">
-        <v>3</v>
+      <c r="C601" t="s">
+        <v>103</v>
       </c>
       <c r="D601">
         <v>1</v>
@@ -9165,8 +9165,8 @@
       <c r="B602">
         <v>2017</v>
       </c>
-      <c r="C602">
-        <v>2</v>
+      <c r="C602" t="s">
+        <v>103</v>
       </c>
       <c r="D602">
         <v>1</v>
@@ -9193,8 +9193,8 @@
       <c r="B604">
         <v>2017</v>
       </c>
-      <c r="C604">
-        <v>2</v>
+      <c r="C604" t="s">
+        <v>103</v>
       </c>
       <c r="D604">
         <v>1</v>
@@ -9221,8 +9221,8 @@
       <c r="B606">
         <v>2017</v>
       </c>
-      <c r="C606">
-        <v>3</v>
+      <c r="C606" t="s">
+        <v>103</v>
       </c>
       <c r="D606">
         <v>1</v>
@@ -9235,8 +9235,8 @@
       <c r="B607">
         <v>2017</v>
       </c>
-      <c r="C607">
-        <v>2</v>
+      <c r="C607" t="s">
+        <v>103</v>
       </c>
       <c r="D607">
         <v>1</v>
@@ -9249,8 +9249,8 @@
       <c r="B608">
         <v>2017</v>
       </c>
-      <c r="C608">
-        <v>2</v>
+      <c r="C608" t="s">
+        <v>103</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -9263,8 +9263,8 @@
       <c r="B609">
         <v>2017</v>
       </c>
-      <c r="C609">
-        <v>1</v>
+      <c r="C609" t="s">
+        <v>103</v>
       </c>
       <c r="D609">
         <v>1</v>
@@ -9291,8 +9291,8 @@
       <c r="B611">
         <v>2017</v>
       </c>
-      <c r="C611">
-        <v>2</v>
+      <c r="C611" t="s">
+        <v>103</v>
       </c>
       <c r="D611">
         <v>1</v>
@@ -9305,8 +9305,8 @@
       <c r="B612">
         <v>2017</v>
       </c>
-      <c r="C612">
-        <v>2</v>
+      <c r="C612" t="s">
+        <v>103</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -9319,8 +9319,8 @@
       <c r="B613">
         <v>2017</v>
       </c>
-      <c r="C613">
-        <v>2</v>
+      <c r="C613" t="s">
+        <v>103</v>
       </c>
       <c r="D613">
         <v>1</v>
@@ -9333,8 +9333,8 @@
       <c r="B614">
         <v>2017</v>
       </c>
-      <c r="C614">
-        <v>2</v>
+      <c r="C614" t="s">
+        <v>103</v>
       </c>
       <c r="D614">
         <v>1</v>
@@ -9347,8 +9347,8 @@
       <c r="B615">
         <v>2017</v>
       </c>
-      <c r="C615">
-        <v>2</v>
+      <c r="C615" t="s">
+        <v>103</v>
       </c>
       <c r="D615">
         <v>1</v>
@@ -9361,8 +9361,8 @@
       <c r="B616">
         <v>2017</v>
       </c>
-      <c r="C616">
-        <v>2</v>
+      <c r="C616" t="s">
+        <v>103</v>
       </c>
       <c r="D616">
         <v>1</v>
@@ -9375,8 +9375,8 @@
       <c r="B617">
         <v>2017</v>
       </c>
-      <c r="C617">
-        <v>1</v>
+      <c r="C617" t="s">
+        <v>103</v>
       </c>
       <c r="D617">
         <v>1</v>
@@ -9389,8 +9389,8 @@
       <c r="B618">
         <v>2017</v>
       </c>
-      <c r="C618">
-        <v>2</v>
+      <c r="C618" t="s">
+        <v>103</v>
       </c>
       <c r="D618">
         <v>1</v>
@@ -9403,8 +9403,8 @@
       <c r="B619">
         <v>2017</v>
       </c>
-      <c r="C619">
-        <v>2</v>
+      <c r="C619" t="s">
+        <v>103</v>
       </c>
       <c r="D619">
         <v>1</v>
@@ -9417,8 +9417,8 @@
       <c r="B620">
         <v>2017</v>
       </c>
-      <c r="C620">
-        <v>1</v>
+      <c r="C620" t="s">
+        <v>103</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -9431,8 +9431,8 @@
       <c r="B621">
         <v>2017</v>
       </c>
-      <c r="C621">
-        <v>2</v>
+      <c r="C621" t="s">
+        <v>103</v>
       </c>
       <c r="D621">
         <v>1</v>
@@ -9445,8 +9445,8 @@
       <c r="B622">
         <v>2017</v>
       </c>
-      <c r="C622">
-        <v>2</v>
+      <c r="C622" t="s">
+        <v>103</v>
       </c>
       <c r="D622">
         <v>1</v>
@@ -9459,8 +9459,8 @@
       <c r="B623">
         <v>2017</v>
       </c>
-      <c r="C623">
-        <v>2</v>
+      <c r="C623" t="s">
+        <v>103</v>
       </c>
       <c r="D623">
         <v>1</v>
@@ -9473,8 +9473,8 @@
       <c r="B624">
         <v>2017</v>
       </c>
-      <c r="C624">
-        <v>2</v>
+      <c r="C624" t="s">
+        <v>103</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -9487,8 +9487,8 @@
       <c r="B625">
         <v>2017</v>
       </c>
-      <c r="C625">
-        <v>3</v>
+      <c r="C625" t="s">
+        <v>103</v>
       </c>
       <c r="D625">
         <v>1</v>
@@ -9501,8 +9501,8 @@
       <c r="B626">
         <v>2017</v>
       </c>
-      <c r="C626">
-        <v>3</v>
+      <c r="C626" t="s">
+        <v>103</v>
       </c>
       <c r="D626">
         <v>1</v>
@@ -9515,8 +9515,8 @@
       <c r="B627">
         <v>2017</v>
       </c>
-      <c r="C627">
-        <v>2</v>
+      <c r="C627" t="s">
+        <v>103</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -9529,8 +9529,8 @@
       <c r="B628">
         <v>2017</v>
       </c>
-      <c r="C628">
-        <v>2</v>
+      <c r="C628" t="s">
+        <v>103</v>
       </c>
       <c r="D628">
         <v>1</v>
@@ -9543,8 +9543,8 @@
       <c r="B629">
         <v>2017</v>
       </c>
-      <c r="C629">
-        <v>2</v>
+      <c r="C629" t="s">
+        <v>103</v>
       </c>
       <c r="D629">
         <v>1</v>
@@ -9557,8 +9557,8 @@
       <c r="B630">
         <v>2017</v>
       </c>
-      <c r="C630">
-        <v>2</v>
+      <c r="C630" t="s">
+        <v>103</v>
       </c>
       <c r="D630">
         <v>1</v>
@@ -9571,8 +9571,8 @@
       <c r="B631">
         <v>2017</v>
       </c>
-      <c r="C631">
-        <v>2</v>
+      <c r="C631" t="s">
+        <v>103</v>
       </c>
       <c r="D631">
         <v>1</v>
@@ -9599,8 +9599,8 @@
       <c r="B633">
         <v>2017</v>
       </c>
-      <c r="C633">
-        <v>2</v>
+      <c r="C633" t="s">
+        <v>103</v>
       </c>
       <c r="D633">
         <v>1</v>
@@ -9627,8 +9627,8 @@
       <c r="B635">
         <v>2017</v>
       </c>
-      <c r="C635">
-        <v>2</v>
+      <c r="C635" t="s">
+        <v>103</v>
       </c>
       <c r="D635">
         <v>1</v>
@@ -9641,8 +9641,8 @@
       <c r="B636">
         <v>2017</v>
       </c>
-      <c r="C636">
-        <v>2</v>
+      <c r="C636" t="s">
+        <v>103</v>
       </c>
       <c r="D636">
         <v>1</v>
@@ -9655,8 +9655,8 @@
       <c r="B637">
         <v>2017</v>
       </c>
-      <c r="C637">
-        <v>2</v>
+      <c r="C637" t="s">
+        <v>103</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -9683,8 +9683,8 @@
       <c r="B639">
         <v>2017</v>
       </c>
-      <c r="C639">
-        <v>2</v>
+      <c r="C639" t="s">
+        <v>103</v>
       </c>
       <c r="D639">
         <v>1</v>
@@ -9711,8 +9711,8 @@
       <c r="B641">
         <v>2017</v>
       </c>
-      <c r="C641">
-        <v>2</v>
+      <c r="C641" t="s">
+        <v>103</v>
       </c>
       <c r="D641">
         <v>1</v>
@@ -9725,8 +9725,8 @@
       <c r="B642">
         <v>2017</v>
       </c>
-      <c r="C642">
-        <v>2</v>
+      <c r="C642" t="s">
+        <v>103</v>
       </c>
       <c r="D642">
         <v>1</v>
@@ -9767,8 +9767,8 @@
       <c r="B645">
         <v>2017</v>
       </c>
-      <c r="C645">
-        <v>2</v>
+      <c r="C645" t="s">
+        <v>103</v>
       </c>
       <c r="D645">
         <v>1</v>
@@ -9781,8 +9781,8 @@
       <c r="B646">
         <v>2017</v>
       </c>
-      <c r="C646">
-        <v>2</v>
+      <c r="C646" t="s">
+        <v>103</v>
       </c>
       <c r="D646">
         <v>1</v>
@@ -9795,8 +9795,8 @@
       <c r="B647">
         <v>2017</v>
       </c>
-      <c r="C647">
-        <v>2</v>
+      <c r="C647" t="s">
+        <v>103</v>
       </c>
       <c r="D647">
         <v>1</v>
@@ -9823,8 +9823,8 @@
       <c r="B649">
         <v>2017</v>
       </c>
-      <c r="C649">
-        <v>2</v>
+      <c r="C649" t="s">
+        <v>103</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -9837,8 +9837,8 @@
       <c r="B650">
         <v>2017</v>
       </c>
-      <c r="C650">
-        <v>2</v>
+      <c r="C650" t="s">
+        <v>103</v>
       </c>
       <c r="D650">
         <v>1</v>
@@ -9851,8 +9851,8 @@
       <c r="B651">
         <v>2017</v>
       </c>
-      <c r="C651">
-        <v>1</v>
+      <c r="C651" t="s">
+        <v>103</v>
       </c>
       <c r="D651">
         <v>1</v>
@@ -9879,8 +9879,8 @@
       <c r="B653">
         <v>2017</v>
       </c>
-      <c r="C653">
-        <v>3</v>
+      <c r="C653" t="s">
+        <v>103</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -9907,8 +9907,8 @@
       <c r="B655">
         <v>2017</v>
       </c>
-      <c r="C655">
-        <v>2</v>
+      <c r="C655" t="s">
+        <v>103</v>
       </c>
       <c r="D655">
         <v>1</v>
@@ -9921,8 +9921,8 @@
       <c r="B656">
         <v>2017</v>
       </c>
-      <c r="C656">
-        <v>2</v>
+      <c r="C656" t="s">
+        <v>103</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -9963,8 +9963,8 @@
       <c r="B659">
         <v>2017</v>
       </c>
-      <c r="C659">
-        <v>2</v>
+      <c r="C659" t="s">
+        <v>103</v>
       </c>
       <c r="D659">
         <v>1</v>
@@ -9977,8 +9977,8 @@
       <c r="B660">
         <v>2017</v>
       </c>
-      <c r="C660">
-        <v>3</v>
+      <c r="C660" t="s">
+        <v>103</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -10005,8 +10005,8 @@
       <c r="B662">
         <v>2017</v>
       </c>
-      <c r="C662">
-        <v>3</v>
+      <c r="C662" t="s">
+        <v>103</v>
       </c>
       <c r="D662">
         <v>1</v>
@@ -10033,8 +10033,8 @@
       <c r="B664">
         <v>2017</v>
       </c>
-      <c r="C664">
-        <v>1</v>
+      <c r="C664" t="s">
+        <v>103</v>
       </c>
       <c r="D664">
         <v>1</v>
@@ -10047,8 +10047,8 @@
       <c r="B665">
         <v>2017</v>
       </c>
-      <c r="C665">
-        <v>2</v>
+      <c r="C665" t="s">
+        <v>103</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -10075,8 +10075,8 @@
       <c r="B667">
         <v>2017</v>
       </c>
-      <c r="C667">
-        <v>2</v>
+      <c r="C667" t="s">
+        <v>103</v>
       </c>
       <c r="D667">
         <v>1</v>
@@ -10103,8 +10103,8 @@
       <c r="B669">
         <v>2017</v>
       </c>
-      <c r="C669">
-        <v>2</v>
+      <c r="C669" t="s">
+        <v>103</v>
       </c>
       <c r="D669">
         <v>1</v>
@@ -10117,8 +10117,8 @@
       <c r="B670">
         <v>2017</v>
       </c>
-      <c r="C670">
-        <v>2</v>
+      <c r="C670" t="s">
+        <v>103</v>
       </c>
       <c r="D670">
         <v>1</v>
@@ -10131,8 +10131,8 @@
       <c r="B671">
         <v>2017</v>
       </c>
-      <c r="C671">
-        <v>1</v>
+      <c r="C671" t="s">
+        <v>103</v>
       </c>
       <c r="D671">
         <v>1</v>
@@ -10145,8 +10145,8 @@
       <c r="B672">
         <v>2017</v>
       </c>
-      <c r="C672">
-        <v>3</v>
+      <c r="C672" t="s">
+        <v>103</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -10173,8 +10173,8 @@
       <c r="B674">
         <v>2017</v>
       </c>
-      <c r="C674">
-        <v>2</v>
+      <c r="C674" t="s">
+        <v>103</v>
       </c>
       <c r="D674">
         <v>1</v>
@@ -10187,8 +10187,8 @@
       <c r="B675">
         <v>2017</v>
       </c>
-      <c r="C675">
-        <v>2</v>
+      <c r="C675" t="s">
+        <v>103</v>
       </c>
       <c r="D675">
         <v>1</v>
@@ -10201,8 +10201,8 @@
       <c r="B676">
         <v>2017</v>
       </c>
-      <c r="C676">
-        <v>1</v>
+      <c r="C676" t="s">
+        <v>103</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -10215,8 +10215,8 @@
       <c r="B677">
         <v>2017</v>
       </c>
-      <c r="C677">
-        <v>2</v>
+      <c r="C677" t="s">
+        <v>103</v>
       </c>
       <c r="D677">
         <v>1</v>
@@ -10229,8 +10229,8 @@
       <c r="B678">
         <v>2017</v>
       </c>
-      <c r="C678">
-        <v>2</v>
+      <c r="C678" t="s">
+        <v>103</v>
       </c>
       <c r="D678">
         <v>1</v>
@@ -10257,8 +10257,8 @@
       <c r="B680">
         <v>2017</v>
       </c>
-      <c r="C680">
-        <v>2</v>
+      <c r="C680" t="s">
+        <v>103</v>
       </c>
       <c r="D680">
         <v>1</v>
@@ -10271,8 +10271,8 @@
       <c r="B681">
         <v>2017</v>
       </c>
-      <c r="C681">
-        <v>2</v>
+      <c r="C681" t="s">
+        <v>103</v>
       </c>
       <c r="D681">
         <v>1</v>
@@ -10285,8 +10285,8 @@
       <c r="B682">
         <v>2017</v>
       </c>
-      <c r="C682">
-        <v>3</v>
+      <c r="C682" t="s">
+        <v>103</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -10313,8 +10313,8 @@
       <c r="B684">
         <v>2017</v>
       </c>
-      <c r="C684">
-        <v>2</v>
+      <c r="C684" t="s">
+        <v>103</v>
       </c>
       <c r="D684">
         <v>1</v>
@@ -10327,8 +10327,8 @@
       <c r="B685">
         <v>2017</v>
       </c>
-      <c r="C685">
-        <v>2</v>
+      <c r="C685" t="s">
+        <v>103</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -10341,8 +10341,8 @@
       <c r="B686">
         <v>2017</v>
       </c>
-      <c r="C686">
-        <v>2</v>
+      <c r="C686" t="s">
+        <v>103</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -10355,8 +10355,8 @@
       <c r="B687">
         <v>2017</v>
       </c>
-      <c r="C687">
-        <v>3</v>
+      <c r="C687" t="s">
+        <v>103</v>
       </c>
       <c r="D687">
         <v>1</v>
@@ -10369,8 +10369,8 @@
       <c r="B688">
         <v>2017</v>
       </c>
-      <c r="C688">
-        <v>2</v>
+      <c r="C688" t="s">
+        <v>103</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -10383,8 +10383,8 @@
       <c r="B689">
         <v>2017</v>
       </c>
-      <c r="C689">
-        <v>1</v>
+      <c r="C689" t="s">
+        <v>103</v>
       </c>
       <c r="D689">
         <v>0</v>
@@ -10397,8 +10397,8 @@
       <c r="B690">
         <v>2017</v>
       </c>
-      <c r="C690">
-        <v>2</v>
+      <c r="C690" t="s">
+        <v>103</v>
       </c>
       <c r="D690">
         <v>1</v>
@@ -10411,8 +10411,8 @@
       <c r="B691">
         <v>2017</v>
       </c>
-      <c r="C691">
-        <v>2</v>
+      <c r="C691" t="s">
+        <v>103</v>
       </c>
       <c r="D691">
         <v>1</v>
@@ -10425,8 +10425,8 @@
       <c r="B692">
         <v>2017</v>
       </c>
-      <c r="C692">
-        <v>3</v>
+      <c r="C692" t="s">
+        <v>103</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -10439,8 +10439,8 @@
       <c r="B693">
         <v>2017</v>
       </c>
-      <c r="C693">
-        <v>3</v>
+      <c r="C693" t="s">
+        <v>103</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -10453,8 +10453,8 @@
       <c r="B694">
         <v>2017</v>
       </c>
-      <c r="C694">
-        <v>2</v>
+      <c r="C694" t="s">
+        <v>103</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -10467,8 +10467,8 @@
       <c r="B695">
         <v>2018</v>
       </c>
-      <c r="C695">
-        <v>1</v>
+      <c r="C695" t="s">
+        <v>103</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -10481,8 +10481,8 @@
       <c r="B696">
         <v>2018</v>
       </c>
-      <c r="C696">
-        <v>2</v>
+      <c r="C696" t="s">
+        <v>103</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -10495,8 +10495,8 @@
       <c r="B697">
         <v>2018</v>
       </c>
-      <c r="C697">
-        <v>2</v>
+      <c r="C697" t="s">
+        <v>103</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -10509,8 +10509,8 @@
       <c r="B698">
         <v>2018</v>
       </c>
-      <c r="C698">
-        <v>2</v>
+      <c r="C698" t="s">
+        <v>103</v>
       </c>
       <c r="D698">
         <v>1</v>
@@ -10537,8 +10537,8 @@
       <c r="B700">
         <v>2018</v>
       </c>
-      <c r="C700">
-        <v>3</v>
+      <c r="C700" t="s">
+        <v>103</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -10551,8 +10551,8 @@
       <c r="B701">
         <v>2018</v>
       </c>
-      <c r="C701">
-        <v>2</v>
+      <c r="C701" t="s">
+        <v>103</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -10579,8 +10579,8 @@
       <c r="B703">
         <v>2018</v>
       </c>
-      <c r="C703">
-        <v>2</v>
+      <c r="C703" t="s">
+        <v>103</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -10607,8 +10607,8 @@
       <c r="B705">
         <v>2018</v>
       </c>
-      <c r="C705">
-        <v>3</v>
+      <c r="C705" t="s">
+        <v>103</v>
       </c>
       <c r="D705">
         <v>1</v>
@@ -10621,8 +10621,8 @@
       <c r="B706">
         <v>2018</v>
       </c>
-      <c r="C706">
-        <v>2</v>
+      <c r="C706" t="s">
+        <v>103</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -10635,8 +10635,8 @@
       <c r="B707">
         <v>2018</v>
       </c>
-      <c r="C707">
-        <v>2</v>
+      <c r="C707" t="s">
+        <v>103</v>
       </c>
       <c r="D707">
         <v>1</v>
@@ -10649,8 +10649,8 @@
       <c r="B708">
         <v>2018</v>
       </c>
-      <c r="C708">
-        <v>1</v>
+      <c r="C708" t="s">
+        <v>103</v>
       </c>
       <c r="D708">
         <v>1</v>
@@ -10677,8 +10677,8 @@
       <c r="B710">
         <v>2018</v>
       </c>
-      <c r="C710">
-        <v>2</v>
+      <c r="C710" t="s">
+        <v>103</v>
       </c>
       <c r="D710">
         <v>1</v>
@@ -10691,8 +10691,8 @@
       <c r="B711">
         <v>2018</v>
       </c>
-      <c r="C711">
-        <v>2</v>
+      <c r="C711" t="s">
+        <v>103</v>
       </c>
       <c r="D711">
         <v>1</v>
@@ -10705,8 +10705,8 @@
       <c r="B712">
         <v>2018</v>
       </c>
-      <c r="C712">
-        <v>2</v>
+      <c r="C712" t="s">
+        <v>103</v>
       </c>
       <c r="D712">
         <v>1</v>
@@ -10719,8 +10719,8 @@
       <c r="B713">
         <v>2018</v>
       </c>
-      <c r="C713">
-        <v>2</v>
+      <c r="C713" t="s">
+        <v>103</v>
       </c>
       <c r="D713">
         <v>1</v>
@@ -10733,8 +10733,8 @@
       <c r="B714">
         <v>2018</v>
       </c>
-      <c r="C714">
-        <v>2</v>
+      <c r="C714" t="s">
+        <v>103</v>
       </c>
       <c r="D714">
         <v>1</v>
@@ -10747,8 +10747,8 @@
       <c r="B715">
         <v>2018</v>
       </c>
-      <c r="C715">
-        <v>2</v>
+      <c r="C715" t="s">
+        <v>103</v>
       </c>
       <c r="D715">
         <v>1</v>
@@ -10761,8 +10761,8 @@
       <c r="B716">
         <v>2018</v>
       </c>
-      <c r="C716">
-        <v>1</v>
+      <c r="C716" t="s">
+        <v>103</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -10775,8 +10775,8 @@
       <c r="B717">
         <v>2018</v>
       </c>
-      <c r="C717">
-        <v>2</v>
+      <c r="C717" t="s">
+        <v>103</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -10789,8 +10789,8 @@
       <c r="B718">
         <v>2018</v>
       </c>
-      <c r="C718">
-        <v>2</v>
+      <c r="C718" t="s">
+        <v>103</v>
       </c>
       <c r="D718">
         <v>1</v>
@@ -10803,8 +10803,8 @@
       <c r="B719">
         <v>2018</v>
       </c>
-      <c r="C719">
-        <v>1</v>
+      <c r="C719" t="s">
+        <v>103</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -10817,8 +10817,8 @@
       <c r="B720">
         <v>2018</v>
       </c>
-      <c r="C720">
-        <v>2</v>
+      <c r="C720" t="s">
+        <v>103</v>
       </c>
       <c r="D720">
         <v>1</v>
@@ -10831,8 +10831,8 @@
       <c r="B721">
         <v>2018</v>
       </c>
-      <c r="C721">
-        <v>2</v>
+      <c r="C721" t="s">
+        <v>103</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -10845,8 +10845,8 @@
       <c r="B722">
         <v>2018</v>
       </c>
-      <c r="C722">
-        <v>2</v>
+      <c r="C722" t="s">
+        <v>103</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -10859,8 +10859,8 @@
       <c r="B723">
         <v>2018</v>
       </c>
-      <c r="C723">
-        <v>2</v>
+      <c r="C723" t="s">
+        <v>103</v>
       </c>
       <c r="D723">
         <v>1</v>
@@ -10873,8 +10873,8 @@
       <c r="B724">
         <v>2018</v>
       </c>
-      <c r="C724">
-        <v>3</v>
+      <c r="C724" t="s">
+        <v>103</v>
       </c>
       <c r="D724">
         <v>1</v>
@@ -10887,8 +10887,8 @@
       <c r="B725">
         <v>2018</v>
       </c>
-      <c r="C725">
-        <v>3</v>
+      <c r="C725" t="s">
+        <v>103</v>
       </c>
       <c r="D725">
         <v>1</v>
@@ -10901,8 +10901,8 @@
       <c r="B726">
         <v>2018</v>
       </c>
-      <c r="C726">
-        <v>2</v>
+      <c r="C726" t="s">
+        <v>103</v>
       </c>
       <c r="D726">
         <v>1</v>
@@ -10915,8 +10915,8 @@
       <c r="B727">
         <v>2018</v>
       </c>
-      <c r="C727">
-        <v>2</v>
+      <c r="C727" t="s">
+        <v>103</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -10929,8 +10929,8 @@
       <c r="B728">
         <v>2018</v>
       </c>
-      <c r="C728">
-        <v>2</v>
+      <c r="C728" t="s">
+        <v>103</v>
       </c>
       <c r="D728">
         <v>1</v>
@@ -10943,8 +10943,8 @@
       <c r="B729">
         <v>2018</v>
       </c>
-      <c r="C729">
-        <v>2</v>
+      <c r="C729" t="s">
+        <v>103</v>
       </c>
       <c r="D729">
         <v>1</v>
@@ -10957,8 +10957,8 @@
       <c r="B730">
         <v>2018</v>
       </c>
-      <c r="C730">
-        <v>2</v>
+      <c r="C730" t="s">
+        <v>103</v>
       </c>
       <c r="D730">
         <v>1</v>
@@ -10985,8 +10985,8 @@
       <c r="B732">
         <v>2018</v>
       </c>
-      <c r="C732">
-        <v>2</v>
+      <c r="C732" t="s">
+        <v>103</v>
       </c>
       <c r="D732">
         <v>1</v>
@@ -11013,8 +11013,8 @@
       <c r="B734">
         <v>2018</v>
       </c>
-      <c r="C734">
-        <v>2</v>
+      <c r="C734" t="s">
+        <v>103</v>
       </c>
       <c r="D734">
         <v>1</v>
@@ -11027,8 +11027,8 @@
       <c r="B735">
         <v>2018</v>
       </c>
-      <c r="C735">
-        <v>2</v>
+      <c r="C735" t="s">
+        <v>103</v>
       </c>
       <c r="D735">
         <v>1</v>
@@ -11041,8 +11041,8 @@
       <c r="B736">
         <v>2018</v>
       </c>
-      <c r="C736">
-        <v>2</v>
+      <c r="C736" t="s">
+        <v>103</v>
       </c>
       <c r="D736">
         <v>1</v>
@@ -11069,8 +11069,8 @@
       <c r="B738">
         <v>2018</v>
       </c>
-      <c r="C738">
-        <v>2</v>
+      <c r="C738" t="s">
+        <v>103</v>
       </c>
       <c r="D738">
         <v>1</v>
@@ -11097,8 +11097,8 @@
       <c r="B740">
         <v>2018</v>
       </c>
-      <c r="C740">
-        <v>2</v>
+      <c r="C740" t="s">
+        <v>103</v>
       </c>
       <c r="D740">
         <v>1</v>
@@ -11111,8 +11111,8 @@
       <c r="B741">
         <v>2018</v>
       </c>
-      <c r="C741">
-        <v>2</v>
+      <c r="C741" t="s">
+        <v>103</v>
       </c>
       <c r="D741">
         <v>1</v>
@@ -11153,8 +11153,8 @@
       <c r="B744">
         <v>2018</v>
       </c>
-      <c r="C744">
-        <v>2</v>
+      <c r="C744" t="s">
+        <v>103</v>
       </c>
       <c r="D744">
         <v>1</v>
@@ -11167,8 +11167,8 @@
       <c r="B745">
         <v>2018</v>
       </c>
-      <c r="C745">
-        <v>2</v>
+      <c r="C745" t="s">
+        <v>103</v>
       </c>
       <c r="D745">
         <v>1</v>
@@ -11181,8 +11181,8 @@
       <c r="B746">
         <v>2018</v>
       </c>
-      <c r="C746">
-        <v>2</v>
+      <c r="C746" t="s">
+        <v>103</v>
       </c>
       <c r="D746">
         <v>1</v>
@@ -11209,8 +11209,8 @@
       <c r="B748">
         <v>2018</v>
       </c>
-      <c r="C748">
-        <v>2</v>
+      <c r="C748" t="s">
+        <v>103</v>
       </c>
       <c r="D748">
         <v>1</v>
@@ -11223,8 +11223,8 @@
       <c r="B749">
         <v>2018</v>
       </c>
-      <c r="C749">
-        <v>2</v>
+      <c r="C749" t="s">
+        <v>103</v>
       </c>
       <c r="D749">
         <v>1</v>
@@ -11237,8 +11237,8 @@
       <c r="B750">
         <v>2018</v>
       </c>
-      <c r="C750">
-        <v>1</v>
+      <c r="C750" t="s">
+        <v>103</v>
       </c>
       <c r="D750">
         <v>1</v>
@@ -11265,8 +11265,8 @@
       <c r="B752">
         <v>2018</v>
       </c>
-      <c r="C752">
-        <v>3</v>
+      <c r="C752" t="s">
+        <v>103</v>
       </c>
       <c r="D752">
         <v>1</v>
@@ -11293,8 +11293,8 @@
       <c r="B754">
         <v>2018</v>
       </c>
-      <c r="C754">
-        <v>2</v>
+      <c r="C754" t="s">
+        <v>103</v>
       </c>
       <c r="D754">
         <v>1</v>
@@ -11307,8 +11307,8 @@
       <c r="B755">
         <v>2018</v>
       </c>
-      <c r="C755">
-        <v>2</v>
+      <c r="C755" t="s">
+        <v>103</v>
       </c>
       <c r="D755">
         <v>1</v>
@@ -11349,8 +11349,8 @@
       <c r="B758">
         <v>2018</v>
       </c>
-      <c r="C758">
-        <v>2</v>
+      <c r="C758" t="s">
+        <v>103</v>
       </c>
       <c r="D758">
         <v>1</v>
@@ -11363,8 +11363,8 @@
       <c r="B759">
         <v>2018</v>
       </c>
-      <c r="C759">
-        <v>3</v>
+      <c r="C759" t="s">
+        <v>103</v>
       </c>
       <c r="D759">
         <v>1</v>
@@ -11391,8 +11391,8 @@
       <c r="B761">
         <v>2018</v>
       </c>
-      <c r="C761">
-        <v>3</v>
+      <c r="C761" t="s">
+        <v>103</v>
       </c>
       <c r="D761">
         <v>1</v>
@@ -11419,8 +11419,8 @@
       <c r="B763">
         <v>2018</v>
       </c>
-      <c r="C763">
-        <v>1</v>
+      <c r="C763" t="s">
+        <v>103</v>
       </c>
       <c r="D763">
         <v>1</v>
@@ -11433,8 +11433,8 @@
       <c r="B764">
         <v>2018</v>
       </c>
-      <c r="C764">
-        <v>2</v>
+      <c r="C764" t="s">
+        <v>103</v>
       </c>
       <c r="D764">
         <v>1</v>
@@ -11461,8 +11461,8 @@
       <c r="B766">
         <v>2018</v>
       </c>
-      <c r="C766">
-        <v>2</v>
+      <c r="C766" t="s">
+        <v>103</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -11489,8 +11489,8 @@
       <c r="B768">
         <v>2018</v>
       </c>
-      <c r="C768">
-        <v>2</v>
+      <c r="C768" t="s">
+        <v>103</v>
       </c>
       <c r="D768">
         <v>1</v>
@@ -11503,8 +11503,8 @@
       <c r="B769">
         <v>2018</v>
       </c>
-      <c r="C769">
-        <v>2</v>
+      <c r="C769" t="s">
+        <v>103</v>
       </c>
       <c r="D769">
         <v>1</v>
@@ -11517,8 +11517,8 @@
       <c r="B770">
         <v>2018</v>
       </c>
-      <c r="C770">
-        <v>1</v>
+      <c r="C770" t="s">
+        <v>103</v>
       </c>
       <c r="D770">
         <v>1</v>
@@ -11531,8 +11531,8 @@
       <c r="B771">
         <v>2018</v>
       </c>
-      <c r="C771">
-        <v>3</v>
+      <c r="C771" t="s">
+        <v>103</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -11559,8 +11559,8 @@
       <c r="B773">
         <v>2018</v>
       </c>
-      <c r="C773">
-        <v>2</v>
+      <c r="C773" t="s">
+        <v>103</v>
       </c>
       <c r="D773">
         <v>1</v>
@@ -11573,8 +11573,8 @@
       <c r="B774">
         <v>2018</v>
       </c>
-      <c r="C774">
-        <v>2</v>
+      <c r="C774" t="s">
+        <v>103</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -11587,8 +11587,8 @@
       <c r="B775">
         <v>2018</v>
       </c>
-      <c r="C775">
-        <v>1</v>
+      <c r="C775" t="s">
+        <v>103</v>
       </c>
       <c r="D775">
         <v>1</v>
@@ -11601,8 +11601,8 @@
       <c r="B776">
         <v>2018</v>
       </c>
-      <c r="C776">
-        <v>2</v>
+      <c r="C776" t="s">
+        <v>103</v>
       </c>
       <c r="D776">
         <v>1</v>
@@ -11615,8 +11615,8 @@
       <c r="B777">
         <v>2018</v>
       </c>
-      <c r="C777">
-        <v>2</v>
+      <c r="C777" t="s">
+        <v>103</v>
       </c>
       <c r="D777">
         <v>1</v>
@@ -11643,8 +11643,8 @@
       <c r="B779">
         <v>2018</v>
       </c>
-      <c r="C779">
-        <v>2</v>
+      <c r="C779" t="s">
+        <v>103</v>
       </c>
       <c r="D779">
         <v>1</v>
@@ -11657,8 +11657,8 @@
       <c r="B780">
         <v>2018</v>
       </c>
-      <c r="C780">
-        <v>2</v>
+      <c r="C780" t="s">
+        <v>103</v>
       </c>
       <c r="D780">
         <v>1</v>
@@ -11671,8 +11671,8 @@
       <c r="B781">
         <v>2018</v>
       </c>
-      <c r="C781">
-        <v>3</v>
+      <c r="C781" t="s">
+        <v>103</v>
       </c>
       <c r="D781">
         <v>1</v>
@@ -11699,8 +11699,8 @@
       <c r="B783">
         <v>2018</v>
       </c>
-      <c r="C783">
-        <v>2</v>
+      <c r="C783" t="s">
+        <v>103</v>
       </c>
       <c r="D783">
         <v>1</v>
@@ -11713,8 +11713,8 @@
       <c r="B784">
         <v>2018</v>
       </c>
-      <c r="C784">
-        <v>2</v>
+      <c r="C784" t="s">
+        <v>103</v>
       </c>
       <c r="D784">
         <v>1</v>
@@ -11727,8 +11727,8 @@
       <c r="B785">
         <v>2018</v>
       </c>
-      <c r="C785">
-        <v>2</v>
+      <c r="C785" t="s">
+        <v>103</v>
       </c>
       <c r="D785">
         <v>1</v>
@@ -11741,8 +11741,8 @@
       <c r="B786">
         <v>2018</v>
       </c>
-      <c r="C786">
-        <v>3</v>
+      <c r="C786" t="s">
+        <v>103</v>
       </c>
       <c r="D786">
         <v>1</v>
@@ -11755,8 +11755,8 @@
       <c r="B787">
         <v>2018</v>
       </c>
-      <c r="C787">
-        <v>2</v>
+      <c r="C787" t="s">
+        <v>103</v>
       </c>
       <c r="D787">
         <v>1</v>
@@ -11769,8 +11769,8 @@
       <c r="B788">
         <v>2018</v>
       </c>
-      <c r="C788">
-        <v>1</v>
+      <c r="C788" t="s">
+        <v>103</v>
       </c>
       <c r="D788">
         <v>0</v>
@@ -11783,8 +11783,8 @@
       <c r="B789">
         <v>2018</v>
       </c>
-      <c r="C789">
-        <v>2</v>
+      <c r="C789" t="s">
+        <v>103</v>
       </c>
       <c r="D789">
         <v>1</v>
@@ -11797,8 +11797,8 @@
       <c r="B790">
         <v>2018</v>
       </c>
-      <c r="C790">
-        <v>2</v>
+      <c r="C790" t="s">
+        <v>103</v>
       </c>
       <c r="D790">
         <v>1</v>
@@ -11811,8 +11811,8 @@
       <c r="B791">
         <v>2018</v>
       </c>
-      <c r="C791">
-        <v>3</v>
+      <c r="C791" t="s">
+        <v>103</v>
       </c>
       <c r="D791">
         <v>1</v>
@@ -11825,8 +11825,8 @@
       <c r="B792">
         <v>2018</v>
       </c>
-      <c r="C792">
-        <v>3</v>
+      <c r="C792" t="s">
+        <v>103</v>
       </c>
       <c r="D792">
         <v>1</v>
@@ -11839,8 +11839,8 @@
       <c r="B793">
         <v>2018</v>
       </c>
-      <c r="C793">
-        <v>2</v>
+      <c r="C793" t="s">
+        <v>103</v>
       </c>
       <c r="D793">
         <v>1</v>

--- a/data/OGP_data.xlsx
+++ b/data/OGP_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiacordoba/Documents/Policy Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2acb8953ad2b9f4d/Documents/GitHub/policy_lab_ndi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F704E90-EACE-DE43-AADA-6D2120E2C086}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0F704E90-EACE-DE43-AADA-6D2120E2C086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A0EB4E2-22F6-4A98-9C56-332BC1C67126}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20760" yWindow="-21456" windowWidth="26256" windowHeight="12768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,16 +738,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A875" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.5" customWidth="1"/>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -798,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -832,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -883,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -917,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -968,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -985,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>35</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>40</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>44</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>47</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>53</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>54</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>55</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>57</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>63</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>64</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>65</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>66</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>67</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>68</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>69</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>71</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>72</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>73</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>74</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>75</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>76</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>77</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>78</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>79</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>80</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>82</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>84</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>85</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>86</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>87</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>88</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>91</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>92</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>93</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>94</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>95</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>96</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>97</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>98</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>99</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -4079,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>102</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>103</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -4351,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>18</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>25</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>28</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>30</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>31</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>36</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>37</v>
       </c>
@@ -4691,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>38</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>43</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>45</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>46</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>47</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>48</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>50</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>51</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>53</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>54</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>55</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>56</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>57</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>58</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>59</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -5082,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>61</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>63</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>64</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>65</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>66</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>67</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>68</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>69</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>70</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>71</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>72</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>73</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>74</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>75</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>76</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>77</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>78</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>79</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>80</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>81</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>82</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>83</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>85</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>86</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>87</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>88</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>89</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>91</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>92</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>93</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>94</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>95</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>96</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>97</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>98</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>99</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>100</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>101</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>102</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>103</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>16</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>18</v>
       </c>
@@ -6051,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>22</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>23</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>24</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>26</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>28</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>29</v>
       </c>
@@ -6238,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>30</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>31</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>32</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>35</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>36</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>37</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>38</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>39</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>40</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>42</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>43</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>44</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>45</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>46</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>47</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>48</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>49</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>50</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>51</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>52</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>53</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>54</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>55</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>56</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>57</v>
       </c>
@@ -6714,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -6731,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>59</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>60</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>61</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>62</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>63</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>64</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>65</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>66</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>67</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>68</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>69</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>70</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>71</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>72</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>73</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>74</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>75</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>76</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>77</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>78</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>79</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>80</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>81</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>82</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>83</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>84</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>85</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>86</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>87</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>88</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>89</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>90</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>91</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>92</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>93</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>94</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>95</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>96</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>97</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>98</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>99</v>
       </c>
@@ -7428,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>100</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>101</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>102</v>
       </c>
@@ -7479,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>103</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -7513,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>6</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>10</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>11</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>14</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>16</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>18</v>
       </c>
@@ -7734,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>19</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>20</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>21</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>22</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>23</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>24</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>25</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>26</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>28</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>29</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>30</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>31</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>32</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>33</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>34</v>
       </c>
@@ -8006,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>35</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>36</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>37</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>38</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>39</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>40</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>42</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>43</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>44</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>45</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>46</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>47</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>48</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>49</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>50</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>51</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>52</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>53</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>54</v>
       </c>
@@ -8346,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>55</v>
       </c>
@@ -8363,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>56</v>
       </c>
@@ -8380,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>57</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>58</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>59</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>60</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>61</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>62</v>
       </c>
@@ -8482,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>63</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>64</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>65</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>66</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>67</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>68</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>69</v>
       </c>
@@ -8601,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>70</v>
       </c>
@@ -8618,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>71</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>72</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>73</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>74</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>75</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>76</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>77</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>78</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>80</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>81</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>82</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>83</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>84</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>85</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>86</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>87</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>88</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>89</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>90</v>
       </c>
@@ -8958,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>91</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>92</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>93</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>94</v>
       </c>
@@ -9026,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>95</v>
       </c>
@@ -9043,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>96</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>97</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>98</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>99</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>100</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>101</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>102</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>103</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>8</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>11</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>12</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>13</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>14</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>15</v>
       </c>
@@ -9366,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>16</v>
       </c>
@@ -9383,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>17</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>18</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>19</v>
       </c>
@@ -9434,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>20</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>21</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>22</v>
       </c>
@@ -9485,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>23</v>
       </c>
@@ -9502,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>24</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>25</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>26</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>27</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>28</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>29</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>30</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>31</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>32</v>
       </c>
@@ -9655,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>33</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>34</v>
       </c>
@@ -9689,7 +9692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>35</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>36</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>37</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>38</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>39</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>40</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>41</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>42</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>43</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>44</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>45</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>46</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>47</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>48</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>49</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>50</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>51</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>52</v>
       </c>
@@ -9995,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>53</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>54</v>
       </c>
@@ -10029,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>55</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>56</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>57</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>58</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>59</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>60</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>61</v>
       </c>
@@ -10148,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>62</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>63</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>64</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>65</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>66</v>
       </c>
@@ -10233,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>67</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>68</v>
       </c>
@@ -10267,7 +10270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>69</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>70</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>71</v>
       </c>
@@ -10318,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>72</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>73</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>74</v>
       </c>
@@ -10369,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>75</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>76</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>77</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>78</v>
       </c>
@@ -10437,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>79</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>80</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>81</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>82</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>83</v>
       </c>
@@ -10522,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>84</v>
       </c>
@@ -10539,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>85</v>
       </c>
@@ -10556,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>86</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>87</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>88</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>89</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>90</v>
       </c>
@@ -10641,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>91</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>92</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>93</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>94</v>
       </c>
@@ -10709,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>95</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>96</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>97</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>98</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>99</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>100</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>101</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>102</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>103</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>5</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>6</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>8</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>11</v>
       </c>
@@ -10981,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>12</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>13</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>14</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>15</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>16</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>17</v>
       </c>
@@ -11083,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>18</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>19</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>20</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>21</v>
       </c>
@@ -11151,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>22</v>
       </c>
@@ -11168,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>23</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>24</v>
       </c>
@@ -11202,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>25</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>26</v>
       </c>
@@ -11236,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>27</v>
       </c>
@@ -11253,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>28</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>29</v>
       </c>
@@ -11287,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>30</v>
       </c>
@@ -11304,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>31</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>32</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>33</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>34</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>35</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>36</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>37</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>38</v>
       </c>
@@ -11440,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>39</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>40</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>41</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>42</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>43</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>44</v>
       </c>
@@ -11542,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>45</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>46</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>47</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>48</v>
       </c>
@@ -11610,7 +11613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>49</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>50</v>
       </c>
@@ -11644,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>51</v>
       </c>
@@ -11661,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>52</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>53</v>
       </c>
@@ -11695,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>54</v>
       </c>
@@ -11712,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>55</v>
       </c>
@@ -11729,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>56</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>57</v>
       </c>
@@ -11763,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>58</v>
       </c>
@@ -11780,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>59</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>60</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>61</v>
       </c>
@@ -11831,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>62</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>63</v>
       </c>
@@ -11865,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>64</v>
       </c>
@@ -11882,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>65</v>
       </c>
@@ -11899,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>66</v>
       </c>
@@ -11916,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>67</v>
       </c>
@@ -11933,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>68</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>69</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>70</v>
       </c>
@@ -11984,7 +11987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>71</v>
       </c>
@@ -12001,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>72</v>
       </c>
@@ -12018,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>73</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>74</v>
       </c>
@@ -12052,7 +12055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>75</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>76</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>77</v>
       </c>
@@ -12103,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>78</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>79</v>
       </c>
@@ -12137,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>80</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>81</v>
       </c>
@@ -12171,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>82</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>83</v>
       </c>
@@ -12205,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>84</v>
       </c>
@@ -12222,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>85</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>86</v>
       </c>
@@ -12256,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>87</v>
       </c>
@@ -12273,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>88</v>
       </c>
@@ -12290,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>89</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>90</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>91</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>92</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>93</v>
       </c>
@@ -12375,7 +12378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>94</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>95</v>
       </c>
@@ -12409,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>96</v>
       </c>
@@ -12426,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>97</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>98</v>
       </c>
@@ -12460,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>99</v>
       </c>
@@ -12477,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>100</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>101</v>
       </c>
@@ -12511,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>102</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>103</v>
       </c>
@@ -12545,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>5</v>
       </c>
@@ -12562,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>6</v>
       </c>
@@ -12579,7 +12582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -12596,7 +12599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>8</v>
       </c>
@@ -12613,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>9</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>10</v>
       </c>
@@ -12647,7 +12650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>11</v>
       </c>
@@ -12664,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>12</v>
       </c>
@@ -12681,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>13</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>14</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>15</v>
       </c>
@@ -12732,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>16</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>17</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>18</v>
       </c>
@@ -12783,7 +12786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>19</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>20</v>
       </c>
@@ -12817,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>21</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>22</v>
       </c>
@@ -12851,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>23</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>24</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>25</v>
       </c>
@@ -12902,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>26</v>
       </c>
@@ -12919,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>27</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>28</v>
       </c>
@@ -12953,7 +12956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>29</v>
       </c>
@@ -12970,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>30</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>31</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>32</v>
       </c>
@@ -13021,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>33</v>
       </c>
@@ -13038,7 +13041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>34</v>
       </c>
@@ -13055,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>35</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>36</v>
       </c>
@@ -13089,7 +13092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>37</v>
       </c>
@@ -13106,7 +13109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>38</v>
       </c>
@@ -13123,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>39</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>40</v>
       </c>
@@ -13157,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>41</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>42</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>43</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>44</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>45</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>46</v>
       </c>
@@ -13259,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>47</v>
       </c>
@@ -13276,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>48</v>
       </c>
@@ -13293,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>49</v>
       </c>
@@ -13310,7 +13313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>50</v>
       </c>
@@ -13327,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>51</v>
       </c>
@@ -13344,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>52</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>53</v>
       </c>
@@ -13378,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>54</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>55</v>
       </c>
@@ -13412,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>56</v>
       </c>
@@ -13429,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>57</v>
       </c>
@@ -13446,7 +13449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>58</v>
       </c>
@@ -13463,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>59</v>
       </c>
@@ -13480,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>60</v>
       </c>
@@ -13497,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>61</v>
       </c>
@@ -13514,7 +13517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>62</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>63</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>64</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>65</v>
       </c>
@@ -13582,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>66</v>
       </c>
@@ -13599,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>67</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>68</v>
       </c>
@@ -13633,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>69</v>
       </c>
@@ -13650,7 +13653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>70</v>
       </c>
@@ -13667,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>71</v>
       </c>
@@ -13684,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>72</v>
       </c>
@@ -13701,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>73</v>
       </c>
@@ -13718,7 +13721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>74</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>75</v>
       </c>
@@ -13752,7 +13755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>76</v>
       </c>
@@ -13769,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>77</v>
       </c>
@@ -13786,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>78</v>
       </c>
@@ -13803,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>79</v>
       </c>
@@ -13820,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>80</v>
       </c>
@@ -13837,7 +13840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>81</v>
       </c>
@@ -13854,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>82</v>
       </c>
@@ -13871,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>83</v>
       </c>
@@ -13888,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>84</v>
       </c>
@@ -13905,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>85</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>86</v>
       </c>
@@ -13939,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>87</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>88</v>
       </c>
@@ -13973,7 +13976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>89</v>
       </c>
@@ -13990,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>90</v>
       </c>
@@ -14007,7 +14010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>91</v>
       </c>
@@ -14024,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>92</v>
       </c>
@@ -14041,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>93</v>
       </c>
@@ -14058,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>94</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>95</v>
       </c>
@@ -14092,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>96</v>
       </c>
@@ -14109,7 +14112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>97</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>98</v>
       </c>
@@ -14143,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>99</v>
       </c>
@@ -14160,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>100</v>
       </c>
@@ -14177,7 +14180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>101</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>102</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>103</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>5</v>
       </c>
@@ -14245,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>6</v>
       </c>
@@ -14262,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -14279,7 +14282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>8</v>
       </c>
@@ -14296,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>9</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>10</v>
       </c>
@@ -14330,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>11</v>
       </c>
@@ -14347,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>12</v>
       </c>
@@ -14364,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>13</v>
       </c>
@@ -14381,7 +14384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>14</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>15</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>16</v>
       </c>
@@ -14432,7 +14435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>17</v>
       </c>
@@ -14449,7 +14452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>18</v>
       </c>
@@ -14466,7 +14469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>19</v>
       </c>
@@ -14483,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>20</v>
       </c>
@@ -14500,7 +14503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>21</v>
       </c>
@@ -14517,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>22</v>
       </c>
@@ -14534,7 +14537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>23</v>
       </c>
@@ -14551,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>24</v>
       </c>
@@ -14568,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>25</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>26</v>
       </c>
@@ -14602,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>27</v>
       </c>
@@ -14619,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>28</v>
       </c>
@@ -14636,7 +14639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>29</v>
       </c>
@@ -14653,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>30</v>
       </c>
@@ -14670,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>31</v>
       </c>
@@ -14687,7 +14690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>32</v>
       </c>
@@ -14704,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>33</v>
       </c>
@@ -14721,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>34</v>
       </c>
@@ -14738,7 +14741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>35</v>
       </c>
@@ -14755,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>36</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>37</v>
       </c>
@@ -14789,7 +14792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>38</v>
       </c>
@@ -14806,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>39</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>40</v>
       </c>
@@ -14840,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>41</v>
       </c>
@@ -14857,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>42</v>
       </c>
@@ -14874,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>43</v>
       </c>
@@ -14891,7 +14894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>44</v>
       </c>
@@ -14908,7 +14911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>45</v>
       </c>
@@ -14925,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>46</v>
       </c>
@@ -14942,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>47</v>
       </c>
@@ -14959,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>48</v>
       </c>
@@ -14976,7 +14979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>49</v>
       </c>
@@ -14993,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>50</v>
       </c>
@@ -15010,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>51</v>
       </c>
@@ -15027,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>52</v>
       </c>
@@ -15044,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>53</v>
       </c>
@@ -15061,7 +15064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>54</v>
       </c>
@@ -15078,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>55</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>56</v>
       </c>
@@ -15112,7 +15115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>57</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>58</v>
       </c>
@@ -15146,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>59</v>
       </c>
@@ -15163,7 +15166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>60</v>
       </c>
@@ -15180,7 +15183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>61</v>
       </c>
@@ -15197,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>62</v>
       </c>
@@ -15214,7 +15217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>63</v>
       </c>
@@ -15231,7 +15234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>64</v>
       </c>
@@ -15248,7 +15251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>65</v>
       </c>
@@ -15265,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>66</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>67</v>
       </c>
@@ -15299,7 +15302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>68</v>
       </c>
@@ -15316,7 +15319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>69</v>
       </c>
@@ -15333,7 +15336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>70</v>
       </c>
@@ -15350,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>71</v>
       </c>
@@ -15367,7 +15370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>72</v>
       </c>
@@ -15384,7 +15387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>73</v>
       </c>
@@ -15401,7 +15404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>74</v>
       </c>
@@ -15418,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>75</v>
       </c>
@@ -15435,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>76</v>
       </c>
@@ -15452,7 +15455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>77</v>
       </c>
@@ -15469,7 +15472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>78</v>
       </c>
@@ -15486,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>79</v>
       </c>
@@ -15503,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>80</v>
       </c>
@@ -15520,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>81</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>82</v>
       </c>
@@ -15554,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>83</v>
       </c>
@@ -15571,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>84</v>
       </c>
@@ -15588,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>85</v>
       </c>
@@ -15605,7 +15608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>86</v>
       </c>
@@ -15622,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>87</v>
       </c>
@@ -15639,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>88</v>
       </c>
@@ -15656,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>89</v>
       </c>
@@ -15673,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>90</v>
       </c>
@@ -15690,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>91</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>92</v>
       </c>
@@ -15724,7 +15727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>93</v>
       </c>
@@ -15741,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>94</v>
       </c>
@@ -15758,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>95</v>
       </c>
@@ -15775,7 +15778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>96</v>
       </c>
@@ -15792,7 +15795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>97</v>
       </c>
@@ -15809,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>98</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>99</v>
       </c>
@@ -15843,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>100</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>101</v>
       </c>
@@ -15877,7 +15880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>102</v>
       </c>
@@ -15894,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>103</v>
       </c>
